--- a/media/subset_env.xlsx
+++ b/media/subset_env.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t xml:space="preserve">RELEVE_NR</t>
   </si>
@@ -227,10 +227,7 @@
     <t xml:space="preserve">REMARKS</t>
   </si>
   <si>
-    <t xml:space="preserve">Ks_110(2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20050727</t>
+    <t xml:space="preserve">Ks_G-3</t>
   </si>
   <si>
     <t xml:space="preserve">I</t>
@@ -245,10 +242,10 @@
     <t xml:space="preserve">R</t>
   </si>
   <si>
-    <t xml:space="preserve">FLD_NM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carex aquatilis</t>
+    <t xml:space="preserve">RU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">herb sparse willows</t>
   </si>
   <si>
     <t xml:space="preserve">KS</t>
@@ -257,46 +254,43 @@
     <t xml:space="preserve">000038</t>
   </si>
   <si>
-    <t xml:space="preserve">RU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOVAN_KS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bovanenkovo Gas Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
+    <t xml:space="preserve">Geofiz_Ks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syadayykha river</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">LW_PLN</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AQU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in orig. huge puddle; cover of herb layer = 40-50 percent</t>
+    <t xml:space="preserve">6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. vegetation cover is fragmenteted; cover of herb layer = 10 percent; hummocks (height = 10 cm, diameter = 1.5 m)</t>
   </si>
 </sst>
 </file>
@@ -844,125 +838,129 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>20097</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" t="s">
-        <v>72</v>
+      <c r="B2" t="n">
+        <v>20177</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20120801</v>
       </c>
       <c r="D2" t="n">
         <v>-1</v>
       </c>
       <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>74</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>75</v>
-      </c>
-      <c r="H2" t="s">
-        <v>76</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s">
         <v>77</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>78</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>79</v>
-      </c>
-      <c r="N2" t="s">
-        <v>80</v>
       </c>
       <c r="O2"/>
       <c r="P2"/>
-      <c r="Q2" t="s">
-        <v>80</v>
-      </c>
+      <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V2" t="s">
         <v>81</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>82</v>
-      </c>
-      <c r="V2" t="s">
-        <v>83</v>
-      </c>
-      <c r="W2" t="s">
-        <v>84</v>
       </c>
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AA2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>69.818635</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>73.829304</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF2" t="s">
         <v>85</v>
       </c>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2" t="s">
+      <c r="AG2" t="n">
+        <v>180</v>
+      </c>
+      <c r="AH2" t="s">
         <v>86</v>
       </c>
-      <c r="AF2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>87</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2"/>
+      <c r="AK2" t="s">
         <v>88</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>89</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>90</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>91</v>
       </c>
-      <c r="AM2"/>
-      <c r="AN2"/>
       <c r="AO2"/>
       <c r="AP2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AQ2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AR2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AS2" t="n">
         <v>1</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AW2"/>
       <c r="AX2"/>
       <c r="AY2"/>
       <c r="AZ2"/>
@@ -971,29 +969,29 @@
       <c r="BC2"/>
       <c r="BD2"/>
       <c r="BE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>93</v>
+        <v>15</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>5</v>
       </c>
       <c r="BG2"/>
-      <c r="BH2"/>
+      <c r="BH2" t="n">
+        <v>40</v>
+      </c>
       <c r="BI2"/>
       <c r="BJ2"/>
       <c r="BK2"/>
       <c r="BL2"/>
       <c r="BM2" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="BN2"/>
       <c r="BO2"/>
-      <c r="BP2" t="n">
-        <v>0</v>
-      </c>
+      <c r="BP2"/>
       <c r="BQ2"/>
       <c r="BR2"/>
       <c r="BS2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/media/subset_env.xlsx
+++ b/media/subset_env.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t xml:space="preserve">RELEVE_NR</t>
   </si>
@@ -225,72 +225,6 @@
   </si>
   <si>
     <t xml:space="preserve">REMARKS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ks_G-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">herb sparse willows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geofiz_Ks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syadayykha river</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LW_PLN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in orig. vegetation cover is fragmenteted; cover of herb layer = 10 percent; hummocks (height = 10 cm, diameter = 1.5 m)</t>
   </si>
 </sst>
 </file>
@@ -837,163 +771,6 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="n">
-        <v>20177</v>
-      </c>
-      <c r="C2" t="n">
-        <v>20120801</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2" t="s">
-        <v>76</v>
-      </c>
-      <c r="U2" t="s">
-        <v>80</v>
-      </c>
-      <c r="V2" t="s">
-        <v>81</v>
-      </c>
-      <c r="W2" t="s">
-        <v>82</v>
-      </c>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>69.818635</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>73.829304</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>180</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ2"/>
-      <c r="AK2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO2"/>
-      <c r="AP2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW2"/>
-      <c r="AX2"/>
-      <c r="AY2"/>
-      <c r="AZ2"/>
-      <c r="BA2"/>
-      <c r="BB2"/>
-      <c r="BC2"/>
-      <c r="BD2"/>
-      <c r="BE2" t="n">
-        <v>15</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG2"/>
-      <c r="BH2" t="n">
-        <v>40</v>
-      </c>
-      <c r="BI2"/>
-      <c r="BJ2"/>
-      <c r="BK2"/>
-      <c r="BL2"/>
-      <c r="BM2" t="n">
-        <v>70</v>
-      </c>
-      <c r="BN2"/>
-      <c r="BO2"/>
-      <c r="BP2"/>
-      <c r="BQ2"/>
-      <c r="BR2"/>
-      <c r="BS2" t="s">
-        <v>92</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/media/subset_env.xlsx
+++ b/media/subset_env.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
   <si>
     <t xml:space="preserve">RELEVE_NR</t>
   </si>
@@ -225,6 +225,690 @@
   </si>
   <si>
     <t xml:space="preserve">REMARKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_107(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20050727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD_NM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salix lanata-Calamagrostis canadensis s. langsdorffii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOVAN_KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bovanenkovo Gas Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LW_PLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. neighbouring releve N20086 and the old road; hummock 30 cm high; cover of herb layer = 60 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_108(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calamagrostis neglecta-Poa arctica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. the old (about 20 years old) road in willows, 20-25 m wide with many tracks; cover of herb layer = 50 percent (20 percent of it is litter); there are more Carex and Eriophorum species in wet depressions and graminoids in dry places, rare - flat hummocks (height=60-80 cm) with Calamagrostis species; dry place, flat microrelief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_108(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calamagrostis neglecta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.387694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.450333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. the old (about 20 years old) road in willows, 20-25 m wide with many tracks; cover of herb layer = 60-70 percent; dry updrawn part of the road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_108(5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carex aquatilis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. the old (about 20 years old) road in willows, 20-25 m wide with many tracks; cover of herb layer = 90 percent; relatevely dry fragment of the road along the willows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salix lanata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.388194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.447750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. along the road; hummocks with dry willows and depressions with more herbs and segdes; cover of herb layer = 40 percent; height of Betula nana = 40-50 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.388639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.449750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. road border; cover of herb layer = 40 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_111(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. gentle slope; cover of herb layer = 40 percent; Calamagrostis neglecta and Myosotis alpestris s. asiatica in wet depressions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_111(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. hummock; cover of herb layer = 30-40 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_111(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betula nana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. hummock; cover of herb layer = 40 percent; height of Betula nana = 25-35 cm, height of Salix lanata = 35-45 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20050728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calamagrostis holmii-Polytrichum hyperboreum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.392806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.450000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. landslide below, surface with cracks (h=40 cm) ; 10 percent = frost boils (diameter = 10-15 cm); cover of herb layer = 60 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_113(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deschampsia obensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.392750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.450056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. dry and cracked landslide shearing surface; remain fragments of parent community (releve N 20108); cover of herb layer = 45-50 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_113(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dicranum spadiceum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. landslide body; cover of herb layer = 10 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_113(4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanionia uncinata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. landslide body; cover of herb layer = 30 percent; Cladonia species = cups of Cladonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_113(5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peltigera aphthosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. landslide body; cover of herb layer = 10 percent; Cladonia species = cups of Cladonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_113(6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puccinellia hauptiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.392556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.450389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. landslide shearing surface; cover of herb layer = 40-50 percent; Alopecurus pratensis along the borders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salix lanata-Equisetum arvense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.392472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.450639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. fragmented landslide body; cover of herb layer = 70 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_116а</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20050729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.397556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.439806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. near gang of wells; tracks; cover of herb layer = 80 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deschampsia obensis-Leptobryum pyriforme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. gang of wells; bulk sand; cover of herb layer = 50 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_119(1а)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carex aquatilis-Eriophorum angustifolium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. rare moss hummocks; tracks; cover of herb layer = 90 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_119(1б)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calamagrostis neglecta-Carex aquatilis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. cover of herb layer = 70 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betula nana-Rubus chamaemorus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. gentle moundy slope; cover of herb layer = 50 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betula nana-Vaccinium vitis-idaea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. landslide border, separation wall (h=1-1,2 m); cracked surface; tracks; cover of herb layer = 60 percent; height of Salix pulchra = 10-12 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. cracked landslide shearing surface; surrounded by willows; remain some hummocks with parent vegetation; cover of herb layer = 50 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_122(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puccinellia hauptiana-Tripleurospermum maritimum s. phaeocephalum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. convex landslide shearing surface; cover of herb layer = 60 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_122(4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceratodon purpureus-Peltigera rufescens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. landslide body (1,5x3 m, h=40-60 cm); height of Betula nana = 25 cm; cover of herb layer = 50 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salix lanata-Hylocomium splendens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. Cladonia species = cups of Cladonia; cover of herb layer = 5-10 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_124(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. Cladonia species = cups of Cladonia; fragment of landslide body (3x8 m, h=60 cm); height of Betula nana = 25 cm; cover of herb layer = 20 percent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_124(4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betula nana-Hylocomium splendens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. dry lower convex part of landslide shearing surface; cover of herb layer = 60 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_125(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIPZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. ditch with steep slopes (5-7 m wide, height = 3-3,5 m), sliding blocks; releve was made in the bottom; in the bottom - running water; cover of herb layer = 40-50 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_125(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. separating wall of a landslide; cover of herb layer = 40 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carex bigelowii s. ensifolia-Hylocomium splendens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. gentle slope with flat microrelief, along the power line; cover of herb layer = 70 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. tussock tundra (tussocks of Eriophorum vaginatum, height = 5-7 cm, diameter = 10-20 cm); cover of herb layer = 60 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poa arctica-Calamagrostis neglecta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. tracks (some with water, some are dry, 30-40 cm wide, height = 20-30 cm); cover of herb layer = 90 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carex rariflora-Luzula wahlenbergii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. tracks, permafrost thaw subsidence; cover of herb layer = 90 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20050730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calamagrostis neglecta-Peltigera aphthosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. moss hummocks (surrounded by separated willow bushes); cover of herb layer = 60-70 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. gentle slope with rare tracks and ramained willows in between; cover of herb layer = 40-60 percent; height of Betula nana = 15-20 cm; Chrysosplenium tetrandrum, Deschampsia obensis, Eriophorum angustifolium, Poa arctica in the tracks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_132а</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. gentle slope with hummocks rectangular in shape (100-200 m2); height of Betula nana ≤ 25 cm; cover of herb layer = 5-10 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_133(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carex aquatilis-Carex rariflora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. swamped site near the road; the most dry are Sphagnum hummocks (height = 15-20 cm, 20x20 cm - 2x5 m); height of Betula nana ≤ 25 cm; cover of herb layer = 50 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salix glauca-Hylocomium splendens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.1261666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.3906666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. height of Betula nana = 40 cm; cover of herb layer = 10-15 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. permafrost thaw subsidence; cover of herb layer = 60 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salix polaris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. hummocky surface (height = 7-8 cm, diameter = 40-50 cm), frost boils; Betula nana has prostrate form; cover of herb layer = 70 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. tracks; cover of herb layer = 40 percent; Eriophorum angustifolium and Eriophorum tolmatchevii in the tracks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salix glauca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. Cladonia species = cups of Cladonia; old (&gt;50 years) convex landslide shearing surface with small cracks and hummocks; vegetation cover is very homogeneous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_139(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20050731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sphagnum squarrosum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. releve on hummock (height = 20-25 cm, 10x10 m); cover of herb layer = 40 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_141(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carex aquatilis-Sphagnum sp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. tracks; cover of herb layer = 60 percent; Eriophorum angustifolium in the tracks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_142(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20050801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salix glauca-Carex aquatilis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. near the pipeline in 100 m off the road; old tracks; cover of herb layer = 30 percent; height of Betula nana = 30 cm; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_142(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calamagrostis canadensis s. langsdorffii-Sanionia uncinata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. dry track (4-5 m wide); cover of herb layer = 80 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carex bigelowii s. ensifolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. tracks, flat microrelief; cover of herb layer = 70 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dupontia fisheri-Hylocomium splendens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. tracks; permafrost thaw subsidence; height of Salix reptans = 5-7 cm; cover of herb layer = 60 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equisetum arvense-Luzula confusa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. ladslide shearing surface; cover of herb layer = 40 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_145(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deschampsia obensis-Hylocomium splendens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. ladslide shearing surface with big hummocks; cover of herb layer = 40 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_145(3а)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deschampsia obensis-Festuca rubra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. upper part of ladslide shearing surface with cracks; cover of herb layer = 60 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_145(4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salix glauca-Calamagrostis neglecta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. ladslide shearing surface with cracks; cover of herb layer = 40 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_146(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. separating wall of a ladslide (with cracks); cover of herb layer = 60 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_146(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deschampsia obensis-Puccinellia hauptiana</t>
   </si>
 </sst>
 </file>
@@ -771,6 +1455,8666 @@
         <v>70</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>20087</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U2" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN2"/>
+      <c r="BO2"/>
+      <c r="BP2" t="n">
+        <v>30</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>40</v>
+      </c>
+      <c r="BR2"/>
+      <c r="BS2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>20089</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U3" t="s">
+        <v>82</v>
+      </c>
+      <c r="V3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3"/>
+      <c r="AY3"/>
+      <c r="AZ3"/>
+      <c r="BA3"/>
+      <c r="BB3"/>
+      <c r="BC3"/>
+      <c r="BD3"/>
+      <c r="BE3" t="n">
+        <v>80</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG3"/>
+      <c r="BH3"/>
+      <c r="BI3"/>
+      <c r="BJ3"/>
+      <c r="BK3"/>
+      <c r="BL3" t="n">
+        <v>20</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN3"/>
+      <c r="BO3"/>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>29</v>
+      </c>
+      <c r="BR3"/>
+      <c r="BS3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>20090</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4" t="s">
+        <v>81</v>
+      </c>
+      <c r="U4" t="s">
+        <v>82</v>
+      </c>
+      <c r="V4" t="s">
+        <v>83</v>
+      </c>
+      <c r="W4" t="s">
+        <v>84</v>
+      </c>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB4"/>
+      <c r="AC4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4"/>
+      <c r="AY4"/>
+      <c r="AZ4"/>
+      <c r="BA4"/>
+      <c r="BB4"/>
+      <c r="BC4"/>
+      <c r="BD4"/>
+      <c r="BE4" t="n">
+        <v>40</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG4"/>
+      <c r="BH4"/>
+      <c r="BI4"/>
+      <c r="BJ4"/>
+      <c r="BK4"/>
+      <c r="BL4"/>
+      <c r="BM4" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN4"/>
+      <c r="BO4"/>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4"/>
+      <c r="BR4"/>
+      <c r="BS4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20093</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5" t="s">
+        <v>80</v>
+      </c>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U5" t="s">
+        <v>82</v>
+      </c>
+      <c r="V5" t="s">
+        <v>83</v>
+      </c>
+      <c r="W5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5"/>
+      <c r="AY5"/>
+      <c r="AZ5"/>
+      <c r="BA5"/>
+      <c r="BB5"/>
+      <c r="BC5"/>
+      <c r="BD5"/>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG5"/>
+      <c r="BH5"/>
+      <c r="BI5"/>
+      <c r="BJ5"/>
+      <c r="BK5"/>
+      <c r="BL5"/>
+      <c r="BM5" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN5"/>
+      <c r="BO5"/>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>45</v>
+      </c>
+      <c r="BR5"/>
+      <c r="BS5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20094</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>111</v>
+      </c>
+      <c r="M6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U6" t="s">
+        <v>82</v>
+      </c>
+      <c r="V6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB6"/>
+      <c r="AC6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6"/>
+      <c r="AY6"/>
+      <c r="AZ6"/>
+      <c r="BA6"/>
+      <c r="BB6"/>
+      <c r="BC6"/>
+      <c r="BD6"/>
+      <c r="BE6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG6"/>
+      <c r="BH6"/>
+      <c r="BI6"/>
+      <c r="BJ6"/>
+      <c r="BK6"/>
+      <c r="BL6"/>
+      <c r="BM6" t="n">
+        <v>80</v>
+      </c>
+      <c r="BN6"/>
+      <c r="BO6"/>
+      <c r="BP6" t="n">
+        <v>75</v>
+      </c>
+      <c r="BQ6"/>
+      <c r="BR6"/>
+      <c r="BS6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>20100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7" t="s">
+        <v>81</v>
+      </c>
+      <c r="U7" t="s">
+        <v>82</v>
+      </c>
+      <c r="V7" t="s">
+        <v>83</v>
+      </c>
+      <c r="W7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB7"/>
+      <c r="AC7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7"/>
+      <c r="AY7"/>
+      <c r="AZ7"/>
+      <c r="BA7"/>
+      <c r="BB7"/>
+      <c r="BC7"/>
+      <c r="BD7"/>
+      <c r="BE7" t="n">
+        <v>70</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG7"/>
+      <c r="BH7"/>
+      <c r="BI7"/>
+      <c r="BJ7"/>
+      <c r="BK7"/>
+      <c r="BL7"/>
+      <c r="BM7" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN7"/>
+      <c r="BO7"/>
+      <c r="BP7" t="n">
+        <v>80</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>25</v>
+      </c>
+      <c r="BR7"/>
+      <c r="BS7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>20101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" t="s">
+        <v>111</v>
+      </c>
+      <c r="M8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8" t="s">
+        <v>81</v>
+      </c>
+      <c r="U8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V8" t="s">
+        <v>83</v>
+      </c>
+      <c r="W8" t="s">
+        <v>84</v>
+      </c>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8"/>
+      <c r="AY8"/>
+      <c r="AZ8"/>
+      <c r="BA8"/>
+      <c r="BB8"/>
+      <c r="BC8"/>
+      <c r="BD8"/>
+      <c r="BE8" t="n">
+        <v>70</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG8"/>
+      <c r="BH8"/>
+      <c r="BI8"/>
+      <c r="BJ8"/>
+      <c r="BK8"/>
+      <c r="BL8"/>
+      <c r="BM8" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN8"/>
+      <c r="BO8"/>
+      <c r="BP8" t="n">
+        <v>80</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>20</v>
+      </c>
+      <c r="BR8"/>
+      <c r="BS8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>20102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="n">
+        <v>200</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9" t="s">
+        <v>81</v>
+      </c>
+      <c r="U9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V9" t="s">
+        <v>83</v>
+      </c>
+      <c r="W9" t="s">
+        <v>84</v>
+      </c>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9"/>
+      <c r="AY9"/>
+      <c r="AZ9"/>
+      <c r="BA9"/>
+      <c r="BB9"/>
+      <c r="BC9"/>
+      <c r="BD9"/>
+      <c r="BE9" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG9"/>
+      <c r="BH9"/>
+      <c r="BI9"/>
+      <c r="BJ9"/>
+      <c r="BK9"/>
+      <c r="BL9"/>
+      <c r="BM9" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN9"/>
+      <c r="BO9"/>
+      <c r="BP9" t="n">
+        <v>35</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>20</v>
+      </c>
+      <c r="BR9"/>
+      <c r="BS9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>20103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10" t="s">
+        <v>81</v>
+      </c>
+      <c r="U10" t="s">
+        <v>82</v>
+      </c>
+      <c r="V10" t="s">
+        <v>83</v>
+      </c>
+      <c r="W10" t="s">
+        <v>84</v>
+      </c>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10"/>
+      <c r="AY10"/>
+      <c r="AZ10"/>
+      <c r="BA10"/>
+      <c r="BB10"/>
+      <c r="BC10"/>
+      <c r="BD10"/>
+      <c r="BE10" t="n">
+        <v>70</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG10"/>
+      <c r="BH10"/>
+      <c r="BI10"/>
+      <c r="BJ10"/>
+      <c r="BK10"/>
+      <c r="BL10"/>
+      <c r="BM10" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN10"/>
+      <c r="BO10"/>
+      <c r="BP10" t="n">
+        <v>25</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>28</v>
+      </c>
+      <c r="BR10"/>
+      <c r="BS10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>20105</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11" t="s">
+        <v>81</v>
+      </c>
+      <c r="U11" t="s">
+        <v>82</v>
+      </c>
+      <c r="V11" t="s">
+        <v>83</v>
+      </c>
+      <c r="W11" t="s">
+        <v>84</v>
+      </c>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB11"/>
+      <c r="AC11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11"/>
+      <c r="AY11"/>
+      <c r="AZ11"/>
+      <c r="BA11"/>
+      <c r="BB11"/>
+      <c r="BC11"/>
+      <c r="BD11"/>
+      <c r="BE11" t="n">
+        <v>90</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BG11"/>
+      <c r="BH11"/>
+      <c r="BI11"/>
+      <c r="BJ11"/>
+      <c r="BK11"/>
+      <c r="BL11"/>
+      <c r="BM11" t="n">
+        <v>90</v>
+      </c>
+      <c r="BN11"/>
+      <c r="BO11"/>
+      <c r="BP11" t="n">
+        <v>9</v>
+      </c>
+      <c r="BQ11"/>
+      <c r="BR11"/>
+      <c r="BS11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" t="n">
+        <v>120</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12" t="s">
+        <v>81</v>
+      </c>
+      <c r="U12" t="s">
+        <v>82</v>
+      </c>
+      <c r="V12" t="s">
+        <v>83</v>
+      </c>
+      <c r="W12" t="s">
+        <v>84</v>
+      </c>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB12"/>
+      <c r="AC12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12"/>
+      <c r="AY12"/>
+      <c r="AZ12"/>
+      <c r="BA12"/>
+      <c r="BB12"/>
+      <c r="BC12"/>
+      <c r="BD12"/>
+      <c r="BE12" t="n">
+        <v>20</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG12"/>
+      <c r="BH12"/>
+      <c r="BI12"/>
+      <c r="BJ12"/>
+      <c r="BK12"/>
+      <c r="BL12"/>
+      <c r="BM12" t="n">
+        <v>45</v>
+      </c>
+      <c r="BN12"/>
+      <c r="BO12"/>
+      <c r="BP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>33</v>
+      </c>
+      <c r="BR12"/>
+      <c r="BS12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>20108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13" t="s">
+        <v>81</v>
+      </c>
+      <c r="U13" t="s">
+        <v>82</v>
+      </c>
+      <c r="V13" t="s">
+        <v>83</v>
+      </c>
+      <c r="W13" t="s">
+        <v>84</v>
+      </c>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13"/>
+      <c r="AY13"/>
+      <c r="AZ13"/>
+      <c r="BA13"/>
+      <c r="BB13"/>
+      <c r="BC13"/>
+      <c r="BD13"/>
+      <c r="BE13" t="n">
+        <v>80</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>135</v>
+      </c>
+      <c r="BG13"/>
+      <c r="BH13"/>
+      <c r="BI13"/>
+      <c r="BJ13"/>
+      <c r="BK13"/>
+      <c r="BL13"/>
+      <c r="BM13" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN13"/>
+      <c r="BO13"/>
+      <c r="BP13" t="n">
+        <v>30</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>15</v>
+      </c>
+      <c r="BR13"/>
+      <c r="BS13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>20109</v>
+      </c>
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14" t="s">
+        <v>80</v>
+      </c>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14" t="s">
+        <v>81</v>
+      </c>
+      <c r="U14" t="s">
+        <v>82</v>
+      </c>
+      <c r="V14" t="s">
+        <v>83</v>
+      </c>
+      <c r="W14" t="s">
+        <v>84</v>
+      </c>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14"/>
+      <c r="AY14"/>
+      <c r="AZ14"/>
+      <c r="BA14"/>
+      <c r="BB14"/>
+      <c r="BC14"/>
+      <c r="BD14"/>
+      <c r="BE14" t="n">
+        <v>90</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG14"/>
+      <c r="BH14"/>
+      <c r="BI14"/>
+      <c r="BJ14"/>
+      <c r="BK14"/>
+      <c r="BL14"/>
+      <c r="BM14" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN14"/>
+      <c r="BO14"/>
+      <c r="BP14" t="n">
+        <v>25</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>18</v>
+      </c>
+      <c r="BR14"/>
+      <c r="BS14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>20110</v>
+      </c>
+      <c r="B15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" t="s">
+        <v>151</v>
+      </c>
+      <c r="M15" t="s">
+        <v>79</v>
+      </c>
+      <c r="N15" t="s">
+        <v>80</v>
+      </c>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15" t="s">
+        <v>80</v>
+      </c>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15" t="s">
+        <v>81</v>
+      </c>
+      <c r="U15" t="s">
+        <v>82</v>
+      </c>
+      <c r="V15" t="s">
+        <v>83</v>
+      </c>
+      <c r="W15" t="s">
+        <v>84</v>
+      </c>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15"/>
+      <c r="AY15"/>
+      <c r="AZ15"/>
+      <c r="BA15"/>
+      <c r="BB15"/>
+      <c r="BC15"/>
+      <c r="BD15"/>
+      <c r="BE15" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>152</v>
+      </c>
+      <c r="BG15"/>
+      <c r="BH15"/>
+      <c r="BI15"/>
+      <c r="BJ15"/>
+      <c r="BK15"/>
+      <c r="BL15"/>
+      <c r="BM15" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN15"/>
+      <c r="BO15"/>
+      <c r="BP15" t="n">
+        <v>25</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>20</v>
+      </c>
+      <c r="BR15"/>
+      <c r="BS15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>20111</v>
+      </c>
+      <c r="B16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16" t="s">
+        <v>80</v>
+      </c>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16" t="s">
+        <v>80</v>
+      </c>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16" t="s">
+        <v>81</v>
+      </c>
+      <c r="U16" t="s">
+        <v>82</v>
+      </c>
+      <c r="V16" t="s">
+        <v>83</v>
+      </c>
+      <c r="W16" t="s">
+        <v>84</v>
+      </c>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB16"/>
+      <c r="AC16" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG16"/>
+      <c r="AH16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16"/>
+      <c r="AY16"/>
+      <c r="AZ16"/>
+      <c r="BA16"/>
+      <c r="BB16"/>
+      <c r="BC16"/>
+      <c r="BD16"/>
+      <c r="BE16" t="n">
+        <v>20</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG16"/>
+      <c r="BH16"/>
+      <c r="BI16"/>
+      <c r="BJ16"/>
+      <c r="BK16"/>
+      <c r="BL16"/>
+      <c r="BM16" t="n">
+        <v>60</v>
+      </c>
+      <c r="BN16"/>
+      <c r="BO16"/>
+      <c r="BP16" t="n">
+        <v>7</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>30</v>
+      </c>
+      <c r="BR16"/>
+      <c r="BS16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>20112</v>
+      </c>
+      <c r="B17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M17" t="s">
+        <v>79</v>
+      </c>
+      <c r="N17" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17" t="s">
+        <v>81</v>
+      </c>
+      <c r="U17" t="s">
+        <v>82</v>
+      </c>
+      <c r="V17" t="s">
+        <v>83</v>
+      </c>
+      <c r="W17" t="s">
+        <v>84</v>
+      </c>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB17"/>
+      <c r="AC17" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17"/>
+      <c r="AY17"/>
+      <c r="AZ17"/>
+      <c r="BA17"/>
+      <c r="BB17"/>
+      <c r="BC17"/>
+      <c r="BD17"/>
+      <c r="BE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG17"/>
+      <c r="BH17"/>
+      <c r="BI17"/>
+      <c r="BJ17"/>
+      <c r="BK17"/>
+      <c r="BL17"/>
+      <c r="BM17" t="n">
+        <v>70</v>
+      </c>
+      <c r="BN17"/>
+      <c r="BO17"/>
+      <c r="BP17" t="n">
+        <v>35</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>15</v>
+      </c>
+      <c r="BR17"/>
+      <c r="BS17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>20114</v>
+      </c>
+      <c r="B18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M18" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" t="s">
+        <v>80</v>
+      </c>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18" t="s">
+        <v>80</v>
+      </c>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18" t="s">
+        <v>81</v>
+      </c>
+      <c r="U18" t="s">
+        <v>82</v>
+      </c>
+      <c r="V18" t="s">
+        <v>83</v>
+      </c>
+      <c r="W18" t="s">
+        <v>84</v>
+      </c>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB18"/>
+      <c r="AC18" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG18"/>
+      <c r="AH18" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18"/>
+      <c r="AY18"/>
+      <c r="AZ18"/>
+      <c r="BA18"/>
+      <c r="BB18"/>
+      <c r="BC18"/>
+      <c r="BD18"/>
+      <c r="BE18" t="n">
+        <v>70</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG18"/>
+      <c r="BH18"/>
+      <c r="BI18"/>
+      <c r="BJ18"/>
+      <c r="BK18"/>
+      <c r="BL18"/>
+      <c r="BM18" t="n">
+        <v>90</v>
+      </c>
+      <c r="BN18"/>
+      <c r="BO18"/>
+      <c r="BP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ18"/>
+      <c r="BR18"/>
+      <c r="BS18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>20116</v>
+      </c>
+      <c r="B19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M19" t="s">
+        <v>79</v>
+      </c>
+      <c r="N19" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19" t="s">
+        <v>80</v>
+      </c>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19" t="s">
+        <v>81</v>
+      </c>
+      <c r="U19" t="s">
+        <v>82</v>
+      </c>
+      <c r="V19" t="s">
+        <v>83</v>
+      </c>
+      <c r="W19" t="s">
+        <v>84</v>
+      </c>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG19"/>
+      <c r="AH19" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19"/>
+      <c r="AY19"/>
+      <c r="AZ19"/>
+      <c r="BA19"/>
+      <c r="BB19"/>
+      <c r="BC19"/>
+      <c r="BD19"/>
+      <c r="BE19" t="n">
+        <v>40</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG19"/>
+      <c r="BH19"/>
+      <c r="BI19"/>
+      <c r="BJ19"/>
+      <c r="BK19"/>
+      <c r="BL19"/>
+      <c r="BM19" t="n">
+        <v>80</v>
+      </c>
+      <c r="BN19"/>
+      <c r="BO19"/>
+      <c r="BP19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>53</v>
+      </c>
+      <c r="BR19"/>
+      <c r="BS19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20118</v>
+      </c>
+      <c r="B20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" t="s">
+        <v>178</v>
+      </c>
+      <c r="M20" t="s">
+        <v>79</v>
+      </c>
+      <c r="N20" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20" t="s">
+        <v>80</v>
+      </c>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20" t="s">
+        <v>81</v>
+      </c>
+      <c r="U20" t="s">
+        <v>82</v>
+      </c>
+      <c r="V20" t="s">
+        <v>83</v>
+      </c>
+      <c r="W20" t="s">
+        <v>84</v>
+      </c>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20"/>
+      <c r="AY20"/>
+      <c r="AZ20"/>
+      <c r="BA20"/>
+      <c r="BB20"/>
+      <c r="BC20"/>
+      <c r="BD20"/>
+      <c r="BE20" t="n">
+        <v>40</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG20"/>
+      <c r="BH20"/>
+      <c r="BI20"/>
+      <c r="BJ20"/>
+      <c r="BK20"/>
+      <c r="BL20"/>
+      <c r="BM20" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN20"/>
+      <c r="BO20"/>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>40</v>
+      </c>
+      <c r="BR20"/>
+      <c r="BS20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20119</v>
+      </c>
+      <c r="B21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" t="s">
+        <v>182</v>
+      </c>
+      <c r="M21" t="s">
+        <v>79</v>
+      </c>
+      <c r="N21" t="s">
+        <v>80</v>
+      </c>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21" t="s">
+        <v>80</v>
+      </c>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21" t="s">
+        <v>81</v>
+      </c>
+      <c r="U21" t="s">
+        <v>82</v>
+      </c>
+      <c r="V21" t="s">
+        <v>83</v>
+      </c>
+      <c r="W21" t="s">
+        <v>84</v>
+      </c>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG21"/>
+      <c r="AH21" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21"/>
+      <c r="AY21"/>
+      <c r="AZ21"/>
+      <c r="BA21"/>
+      <c r="BB21"/>
+      <c r="BC21"/>
+      <c r="BD21"/>
+      <c r="BE21" t="n">
+        <v>70</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG21"/>
+      <c r="BH21"/>
+      <c r="BI21"/>
+      <c r="BJ21"/>
+      <c r="BK21"/>
+      <c r="BL21"/>
+      <c r="BM21" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN21"/>
+      <c r="BO21"/>
+      <c r="BP21" t="n">
+        <v>9</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>25</v>
+      </c>
+      <c r="BR21"/>
+      <c r="BS21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20121</v>
+      </c>
+      <c r="B22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22" t="s">
+        <v>185</v>
+      </c>
+      <c r="M22" t="s">
+        <v>79</v>
+      </c>
+      <c r="N22" t="s">
+        <v>80</v>
+      </c>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22" t="s">
+        <v>80</v>
+      </c>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22" t="s">
+        <v>81</v>
+      </c>
+      <c r="U22" t="s">
+        <v>82</v>
+      </c>
+      <c r="V22" t="s">
+        <v>83</v>
+      </c>
+      <c r="W22" t="s">
+        <v>84</v>
+      </c>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM22"/>
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>35</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22"/>
+      <c r="AY22"/>
+      <c r="AZ22"/>
+      <c r="BA22"/>
+      <c r="BB22"/>
+      <c r="BC22"/>
+      <c r="BD22"/>
+      <c r="BE22" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG22"/>
+      <c r="BH22"/>
+      <c r="BI22"/>
+      <c r="BJ22"/>
+      <c r="BK22"/>
+      <c r="BL22"/>
+      <c r="BM22" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN22"/>
+      <c r="BO22"/>
+      <c r="BP22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>18</v>
+      </c>
+      <c r="BR22"/>
+      <c r="BS22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" t="s">
+        <v>189</v>
+      </c>
+      <c r="M23" t="s">
+        <v>79</v>
+      </c>
+      <c r="N23" t="s">
+        <v>80</v>
+      </c>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23" t="s">
+        <v>80</v>
+      </c>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23" t="s">
+        <v>81</v>
+      </c>
+      <c r="U23" t="s">
+        <v>82</v>
+      </c>
+      <c r="V23" t="s">
+        <v>83</v>
+      </c>
+      <c r="W23" t="s">
+        <v>84</v>
+      </c>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG23"/>
+      <c r="AH23" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM23"/>
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23"/>
+      <c r="AY23"/>
+      <c r="AZ23"/>
+      <c r="BA23"/>
+      <c r="BB23"/>
+      <c r="BC23"/>
+      <c r="BD23"/>
+      <c r="BE23" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>135</v>
+      </c>
+      <c r="BG23"/>
+      <c r="BH23"/>
+      <c r="BI23"/>
+      <c r="BJ23"/>
+      <c r="BK23"/>
+      <c r="BL23"/>
+      <c r="BM23" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN23"/>
+      <c r="BO23"/>
+      <c r="BP23" t="n">
+        <v>9</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>20</v>
+      </c>
+      <c r="BR23"/>
+      <c r="BS23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>20123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" t="n">
+        <v>850</v>
+      </c>
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" t="s">
+        <v>138</v>
+      </c>
+      <c r="M24" t="s">
+        <v>79</v>
+      </c>
+      <c r="N24" t="s">
+        <v>80</v>
+      </c>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24" t="s">
+        <v>80</v>
+      </c>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24" t="s">
+        <v>81</v>
+      </c>
+      <c r="U24" t="s">
+        <v>82</v>
+      </c>
+      <c r="V24" t="s">
+        <v>83</v>
+      </c>
+      <c r="W24" t="s">
+        <v>84</v>
+      </c>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG24"/>
+      <c r="AH24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM24"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24"/>
+      <c r="AY24"/>
+      <c r="AZ24"/>
+      <c r="BA24"/>
+      <c r="BB24"/>
+      <c r="BC24"/>
+      <c r="BD24"/>
+      <c r="BE24" t="n">
+        <v>30</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG24"/>
+      <c r="BH24"/>
+      <c r="BI24"/>
+      <c r="BJ24"/>
+      <c r="BK24"/>
+      <c r="BL24"/>
+      <c r="BM24" t="n">
+        <v>60</v>
+      </c>
+      <c r="BN24"/>
+      <c r="BO24"/>
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>25</v>
+      </c>
+      <c r="BR24"/>
+      <c r="BS24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>20124</v>
+      </c>
+      <c r="B25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25" t="s">
+        <v>77</v>
+      </c>
+      <c r="L25" t="s">
+        <v>196</v>
+      </c>
+      <c r="M25" t="s">
+        <v>79</v>
+      </c>
+      <c r="N25" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25" t="s">
+        <v>80</v>
+      </c>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25" t="s">
+        <v>81</v>
+      </c>
+      <c r="U25" t="s">
+        <v>82</v>
+      </c>
+      <c r="V25" t="s">
+        <v>83</v>
+      </c>
+      <c r="W25" t="s">
+        <v>84</v>
+      </c>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG25"/>
+      <c r="AH25" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM25"/>
+      <c r="AN25"/>
+      <c r="AO25"/>
+      <c r="AP25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25"/>
+      <c r="AY25"/>
+      <c r="AZ25"/>
+      <c r="BA25"/>
+      <c r="BB25"/>
+      <c r="BC25"/>
+      <c r="BD25"/>
+      <c r="BE25" t="n">
+        <v>30</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG25"/>
+      <c r="BH25"/>
+      <c r="BI25"/>
+      <c r="BJ25"/>
+      <c r="BK25"/>
+      <c r="BL25"/>
+      <c r="BM25" t="n">
+        <v>70</v>
+      </c>
+      <c r="BN25"/>
+      <c r="BO25"/>
+      <c r="BP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>22</v>
+      </c>
+      <c r="BR25"/>
+      <c r="BS25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>20127</v>
+      </c>
+      <c r="B26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L26" t="s">
+        <v>199</v>
+      </c>
+      <c r="M26" t="s">
+        <v>79</v>
+      </c>
+      <c r="N26" t="s">
+        <v>80</v>
+      </c>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26" t="s">
+        <v>80</v>
+      </c>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26" t="s">
+        <v>81</v>
+      </c>
+      <c r="U26" t="s">
+        <v>82</v>
+      </c>
+      <c r="V26" t="s">
+        <v>83</v>
+      </c>
+      <c r="W26" t="s">
+        <v>84</v>
+      </c>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM26"/>
+      <c r="AN26"/>
+      <c r="AO26"/>
+      <c r="AP26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26"/>
+      <c r="AY26"/>
+      <c r="AZ26"/>
+      <c r="BA26"/>
+      <c r="BB26"/>
+      <c r="BC26"/>
+      <c r="BD26"/>
+      <c r="BE26" t="n">
+        <v>70</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>200</v>
+      </c>
+      <c r="BG26"/>
+      <c r="BH26"/>
+      <c r="BI26"/>
+      <c r="BJ26"/>
+      <c r="BK26"/>
+      <c r="BL26"/>
+      <c r="BM26" t="n">
+        <v>90</v>
+      </c>
+      <c r="BN26"/>
+      <c r="BO26"/>
+      <c r="BP26" t="n">
+        <v>45</v>
+      </c>
+      <c r="BQ26" t="n">
+        <v>22</v>
+      </c>
+      <c r="BR26"/>
+      <c r="BS26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>20128</v>
+      </c>
+      <c r="B27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27" t="s">
+        <v>77</v>
+      </c>
+      <c r="L27" t="s">
+        <v>203</v>
+      </c>
+      <c r="M27" t="s">
+        <v>79</v>
+      </c>
+      <c r="N27" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27" t="s">
+        <v>80</v>
+      </c>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27" t="s">
+        <v>81</v>
+      </c>
+      <c r="U27" t="s">
+        <v>82</v>
+      </c>
+      <c r="V27" t="s">
+        <v>83</v>
+      </c>
+      <c r="W27" t="s">
+        <v>84</v>
+      </c>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG27"/>
+      <c r="AH27" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM27"/>
+      <c r="AN27"/>
+      <c r="AO27"/>
+      <c r="AP27" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27"/>
+      <c r="AY27"/>
+      <c r="AZ27"/>
+      <c r="BA27"/>
+      <c r="BB27"/>
+      <c r="BC27"/>
+      <c r="BD27"/>
+      <c r="BE27" t="n">
+        <v>90</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>205</v>
+      </c>
+      <c r="BG27"/>
+      <c r="BH27"/>
+      <c r="BI27"/>
+      <c r="BJ27"/>
+      <c r="BK27"/>
+      <c r="BL27"/>
+      <c r="BM27" t="n">
+        <v>95</v>
+      </c>
+      <c r="BN27"/>
+      <c r="BO27"/>
+      <c r="BP27" t="n">
+        <v>45</v>
+      </c>
+      <c r="BQ27" t="n">
+        <v>18</v>
+      </c>
+      <c r="BR27"/>
+      <c r="BS27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>20132</v>
+      </c>
+      <c r="B28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" t="n">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28" t="s">
+        <v>77</v>
+      </c>
+      <c r="L28" t="s">
+        <v>138</v>
+      </c>
+      <c r="M28" t="s">
+        <v>79</v>
+      </c>
+      <c r="N28" t="s">
+        <v>80</v>
+      </c>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28" t="s">
+        <v>80</v>
+      </c>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28" t="s">
+        <v>81</v>
+      </c>
+      <c r="U28" t="s">
+        <v>82</v>
+      </c>
+      <c r="V28" t="s">
+        <v>83</v>
+      </c>
+      <c r="W28" t="s">
+        <v>84</v>
+      </c>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG28"/>
+      <c r="AH28" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28"/>
+      <c r="AY28"/>
+      <c r="AZ28"/>
+      <c r="BA28"/>
+      <c r="BB28"/>
+      <c r="BC28"/>
+      <c r="BD28"/>
+      <c r="BE28" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG28"/>
+      <c r="BH28"/>
+      <c r="BI28"/>
+      <c r="BJ28"/>
+      <c r="BK28"/>
+      <c r="BL28"/>
+      <c r="BM28" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN28"/>
+      <c r="BO28"/>
+      <c r="BP28" t="n">
+        <v>40</v>
+      </c>
+      <c r="BQ28" t="n">
+        <v>20</v>
+      </c>
+      <c r="BR28"/>
+      <c r="BS28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>20133</v>
+      </c>
+      <c r="B29" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29" t="s">
+        <v>77</v>
+      </c>
+      <c r="L29" t="s">
+        <v>211</v>
+      </c>
+      <c r="M29" t="s">
+        <v>79</v>
+      </c>
+      <c r="N29" t="s">
+        <v>80</v>
+      </c>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29" t="s">
+        <v>80</v>
+      </c>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29" t="s">
+        <v>81</v>
+      </c>
+      <c r="U29" t="s">
+        <v>82</v>
+      </c>
+      <c r="V29" t="s">
+        <v>83</v>
+      </c>
+      <c r="W29" t="s">
+        <v>84</v>
+      </c>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG29"/>
+      <c r="AH29" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM29"/>
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX29"/>
+      <c r="AY29"/>
+      <c r="AZ29"/>
+      <c r="BA29"/>
+      <c r="BB29"/>
+      <c r="BC29"/>
+      <c r="BD29"/>
+      <c r="BE29" t="n">
+        <v>40</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG29"/>
+      <c r="BH29"/>
+      <c r="BI29"/>
+      <c r="BJ29"/>
+      <c r="BK29"/>
+      <c r="BL29"/>
+      <c r="BM29" t="n">
+        <v>70</v>
+      </c>
+      <c r="BN29"/>
+      <c r="BO29"/>
+      <c r="BP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ29" t="n">
+        <v>30</v>
+      </c>
+      <c r="BR29"/>
+      <c r="BS29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>20136</v>
+      </c>
+      <c r="B30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" t="s">
+        <v>138</v>
+      </c>
+      <c r="M30" t="s">
+        <v>79</v>
+      </c>
+      <c r="N30" t="s">
+        <v>80</v>
+      </c>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30" t="s">
+        <v>80</v>
+      </c>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30" t="s">
+        <v>81</v>
+      </c>
+      <c r="U30" t="s">
+        <v>82</v>
+      </c>
+      <c r="V30" t="s">
+        <v>83</v>
+      </c>
+      <c r="W30" t="s">
+        <v>84</v>
+      </c>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG30"/>
+      <c r="AH30" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM30"/>
+      <c r="AN30"/>
+      <c r="AO30"/>
+      <c r="AP30" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX30"/>
+      <c r="AY30"/>
+      <c r="AZ30"/>
+      <c r="BA30"/>
+      <c r="BB30"/>
+      <c r="BC30"/>
+      <c r="BD30"/>
+      <c r="BE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG30"/>
+      <c r="BH30"/>
+      <c r="BI30"/>
+      <c r="BJ30"/>
+      <c r="BK30"/>
+      <c r="BL30"/>
+      <c r="BM30" t="n">
+        <v>45</v>
+      </c>
+      <c r="BN30"/>
+      <c r="BO30"/>
+      <c r="BP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ30" t="n">
+        <v>28</v>
+      </c>
+      <c r="BR30"/>
+      <c r="BS30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20137</v>
+      </c>
+      <c r="B31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31" t="s">
+        <v>77</v>
+      </c>
+      <c r="L31" t="s">
+        <v>161</v>
+      </c>
+      <c r="M31" t="s">
+        <v>79</v>
+      </c>
+      <c r="N31" t="s">
+        <v>80</v>
+      </c>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31" t="s">
+        <v>80</v>
+      </c>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31" t="s">
+        <v>81</v>
+      </c>
+      <c r="U31" t="s">
+        <v>82</v>
+      </c>
+      <c r="V31" t="s">
+        <v>83</v>
+      </c>
+      <c r="W31" t="s">
+        <v>84</v>
+      </c>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+      <c r="AE31" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG31"/>
+      <c r="AH31" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM31"/>
+      <c r="AN31"/>
+      <c r="AO31"/>
+      <c r="AP31" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX31"/>
+      <c r="AY31"/>
+      <c r="AZ31"/>
+      <c r="BA31"/>
+      <c r="BB31"/>
+      <c r="BC31"/>
+      <c r="BD31"/>
+      <c r="BE31" t="n">
+        <v>80</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG31"/>
+      <c r="BH31"/>
+      <c r="BI31"/>
+      <c r="BJ31"/>
+      <c r="BK31"/>
+      <c r="BL31"/>
+      <c r="BM31" t="n">
+        <v>90</v>
+      </c>
+      <c r="BN31"/>
+      <c r="BO31"/>
+      <c r="BP31" t="n">
+        <v>45</v>
+      </c>
+      <c r="BQ31" t="n">
+        <v>25</v>
+      </c>
+      <c r="BR31"/>
+      <c r="BS31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20138</v>
+      </c>
+      <c r="B32" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32" t="s">
+        <v>77</v>
+      </c>
+      <c r="L32" t="s">
+        <v>219</v>
+      </c>
+      <c r="M32" t="s">
+        <v>79</v>
+      </c>
+      <c r="N32" t="s">
+        <v>80</v>
+      </c>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32" t="s">
+        <v>80</v>
+      </c>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32" t="s">
+        <v>81</v>
+      </c>
+      <c r="U32" t="s">
+        <v>82</v>
+      </c>
+      <c r="V32" t="s">
+        <v>83</v>
+      </c>
+      <c r="W32" t="s">
+        <v>84</v>
+      </c>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+      <c r="AE32" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG32"/>
+      <c r="AH32" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM32"/>
+      <c r="AN32"/>
+      <c r="AO32"/>
+      <c r="AP32" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX32"/>
+      <c r="AY32"/>
+      <c r="AZ32"/>
+      <c r="BA32"/>
+      <c r="BB32"/>
+      <c r="BC32"/>
+      <c r="BD32"/>
+      <c r="BE32" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>135</v>
+      </c>
+      <c r="BG32"/>
+      <c r="BH32"/>
+      <c r="BI32"/>
+      <c r="BJ32"/>
+      <c r="BK32"/>
+      <c r="BL32"/>
+      <c r="BM32" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN32"/>
+      <c r="BO32"/>
+      <c r="BP32" t="n">
+        <v>12</v>
+      </c>
+      <c r="BQ32"/>
+      <c r="BR32"/>
+      <c r="BS32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>20139</v>
+      </c>
+      <c r="B33" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33" t="s">
+        <v>77</v>
+      </c>
+      <c r="L33" t="s">
+        <v>127</v>
+      </c>
+      <c r="M33" t="s">
+        <v>79</v>
+      </c>
+      <c r="N33" t="s">
+        <v>80</v>
+      </c>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33" t="s">
+        <v>80</v>
+      </c>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33" t="s">
+        <v>81</v>
+      </c>
+      <c r="U33" t="s">
+        <v>82</v>
+      </c>
+      <c r="V33" t="s">
+        <v>83</v>
+      </c>
+      <c r="W33" t="s">
+        <v>84</v>
+      </c>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+      <c r="AE33" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM33"/>
+      <c r="AN33"/>
+      <c r="AO33"/>
+      <c r="AP33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX33"/>
+      <c r="AY33"/>
+      <c r="AZ33"/>
+      <c r="BA33"/>
+      <c r="BB33"/>
+      <c r="BC33"/>
+      <c r="BD33"/>
+      <c r="BE33" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG33"/>
+      <c r="BH33"/>
+      <c r="BI33"/>
+      <c r="BJ33"/>
+      <c r="BK33"/>
+      <c r="BL33"/>
+      <c r="BM33" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN33"/>
+      <c r="BO33"/>
+      <c r="BP33" t="n">
+        <v>7</v>
+      </c>
+      <c r="BQ33" t="n">
+        <v>25</v>
+      </c>
+      <c r="BR33"/>
+      <c r="BS33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>20140</v>
+      </c>
+      <c r="B34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34" t="s">
+        <v>77</v>
+      </c>
+      <c r="L34" t="s">
+        <v>225</v>
+      </c>
+      <c r="M34" t="s">
+        <v>79</v>
+      </c>
+      <c r="N34" t="s">
+        <v>80</v>
+      </c>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34" t="s">
+        <v>80</v>
+      </c>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34" t="s">
+        <v>81</v>
+      </c>
+      <c r="U34" t="s">
+        <v>82</v>
+      </c>
+      <c r="V34" t="s">
+        <v>83</v>
+      </c>
+      <c r="W34" t="s">
+        <v>84</v>
+      </c>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG34"/>
+      <c r="AH34" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM34"/>
+      <c r="AN34"/>
+      <c r="AO34"/>
+      <c r="AP34" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX34"/>
+      <c r="AY34"/>
+      <c r="AZ34"/>
+      <c r="BA34"/>
+      <c r="BB34"/>
+      <c r="BC34"/>
+      <c r="BD34"/>
+      <c r="BE34" t="n">
+        <v>60</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG34"/>
+      <c r="BH34"/>
+      <c r="BI34"/>
+      <c r="BJ34"/>
+      <c r="BK34"/>
+      <c r="BL34"/>
+      <c r="BM34" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN34"/>
+      <c r="BO34"/>
+      <c r="BP34" t="n">
+        <v>27</v>
+      </c>
+      <c r="BQ34" t="n">
+        <v>25</v>
+      </c>
+      <c r="BR34"/>
+      <c r="BS34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>20141</v>
+      </c>
+      <c r="B35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" t="s">
+        <v>76</v>
+      </c>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35" t="s">
+        <v>77</v>
+      </c>
+      <c r="L35" t="s">
+        <v>229</v>
+      </c>
+      <c r="M35" t="s">
+        <v>79</v>
+      </c>
+      <c r="N35" t="s">
+        <v>80</v>
+      </c>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35" t="s">
+        <v>80</v>
+      </c>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35" t="s">
+        <v>81</v>
+      </c>
+      <c r="U35" t="s">
+        <v>82</v>
+      </c>
+      <c r="V35" t="s">
+        <v>83</v>
+      </c>
+      <c r="W35" t="s">
+        <v>84</v>
+      </c>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG35"/>
+      <c r="AH35" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM35"/>
+      <c r="AN35"/>
+      <c r="AO35"/>
+      <c r="AP35" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX35"/>
+      <c r="AY35"/>
+      <c r="AZ35"/>
+      <c r="BA35"/>
+      <c r="BB35"/>
+      <c r="BC35"/>
+      <c r="BD35"/>
+      <c r="BE35" t="n">
+        <v>60</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG35"/>
+      <c r="BH35"/>
+      <c r="BI35"/>
+      <c r="BJ35"/>
+      <c r="BK35"/>
+      <c r="BL35"/>
+      <c r="BM35" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN35"/>
+      <c r="BO35"/>
+      <c r="BP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ35" t="n">
+        <v>32</v>
+      </c>
+      <c r="BR35"/>
+      <c r="BS35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>20142</v>
+      </c>
+      <c r="B36" t="s">
+        <v>231</v>
+      </c>
+      <c r="C36" t="s">
+        <v>232</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36" t="s">
+        <v>77</v>
+      </c>
+      <c r="L36" t="s">
+        <v>233</v>
+      </c>
+      <c r="M36" t="s">
+        <v>79</v>
+      </c>
+      <c r="N36" t="s">
+        <v>80</v>
+      </c>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36" t="s">
+        <v>80</v>
+      </c>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36" t="s">
+        <v>81</v>
+      </c>
+      <c r="U36" t="s">
+        <v>82</v>
+      </c>
+      <c r="V36" t="s">
+        <v>83</v>
+      </c>
+      <c r="W36" t="s">
+        <v>84</v>
+      </c>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM36"/>
+      <c r="AN36"/>
+      <c r="AO36"/>
+      <c r="AP36" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX36"/>
+      <c r="AY36"/>
+      <c r="AZ36"/>
+      <c r="BA36"/>
+      <c r="BB36"/>
+      <c r="BC36"/>
+      <c r="BD36"/>
+      <c r="BE36" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>135</v>
+      </c>
+      <c r="BG36"/>
+      <c r="BH36"/>
+      <c r="BI36"/>
+      <c r="BJ36"/>
+      <c r="BK36"/>
+      <c r="BL36"/>
+      <c r="BM36" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN36"/>
+      <c r="BO36"/>
+      <c r="BP36" t="n">
+        <v>16</v>
+      </c>
+      <c r="BQ36" t="n">
+        <v>22</v>
+      </c>
+      <c r="BR36"/>
+      <c r="BS36" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>20143</v>
+      </c>
+      <c r="B37" t="s">
+        <v>235</v>
+      </c>
+      <c r="C37" t="s">
+        <v>232</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37" t="s">
+        <v>77</v>
+      </c>
+      <c r="L37" t="s">
+        <v>111</v>
+      </c>
+      <c r="M37" t="s">
+        <v>79</v>
+      </c>
+      <c r="N37" t="s">
+        <v>80</v>
+      </c>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37" t="s">
+        <v>80</v>
+      </c>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37" t="s">
+        <v>81</v>
+      </c>
+      <c r="U37" t="s">
+        <v>82</v>
+      </c>
+      <c r="V37" t="s">
+        <v>83</v>
+      </c>
+      <c r="W37" t="s">
+        <v>84</v>
+      </c>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG37"/>
+      <c r="AH37" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM37"/>
+      <c r="AN37"/>
+      <c r="AO37"/>
+      <c r="AP37" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX37"/>
+      <c r="AY37"/>
+      <c r="AZ37"/>
+      <c r="BA37"/>
+      <c r="BB37"/>
+      <c r="BC37"/>
+      <c r="BD37"/>
+      <c r="BE37" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG37"/>
+      <c r="BH37"/>
+      <c r="BI37"/>
+      <c r="BJ37"/>
+      <c r="BK37"/>
+      <c r="BL37"/>
+      <c r="BM37" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN37"/>
+      <c r="BO37"/>
+      <c r="BP37" t="n">
+        <v>65</v>
+      </c>
+      <c r="BQ37" t="n">
+        <v>38</v>
+      </c>
+      <c r="BR37"/>
+      <c r="BS37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>20144</v>
+      </c>
+      <c r="B38" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38" t="s">
+        <v>232</v>
+      </c>
+      <c r="D38" t="n">
+        <v>150</v>
+      </c>
+      <c r="E38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" t="s">
+        <v>76</v>
+      </c>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38" t="s">
+        <v>77</v>
+      </c>
+      <c r="L38" t="s">
+        <v>127</v>
+      </c>
+      <c r="M38" t="s">
+        <v>79</v>
+      </c>
+      <c r="N38" t="s">
+        <v>80</v>
+      </c>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38" t="s">
+        <v>80</v>
+      </c>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38" t="s">
+        <v>81</v>
+      </c>
+      <c r="U38" t="s">
+        <v>82</v>
+      </c>
+      <c r="V38" t="s">
+        <v>83</v>
+      </c>
+      <c r="W38" t="s">
+        <v>84</v>
+      </c>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM38"/>
+      <c r="AN38"/>
+      <c r="AO38"/>
+      <c r="AP38" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>85</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX38"/>
+      <c r="AY38"/>
+      <c r="AZ38"/>
+      <c r="BA38"/>
+      <c r="BB38"/>
+      <c r="BC38"/>
+      <c r="BD38"/>
+      <c r="BE38" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG38"/>
+      <c r="BH38"/>
+      <c r="BI38"/>
+      <c r="BJ38"/>
+      <c r="BK38"/>
+      <c r="BL38"/>
+      <c r="BM38" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN38"/>
+      <c r="BO38"/>
+      <c r="BP38" t="n">
+        <v>30</v>
+      </c>
+      <c r="BQ38" t="n">
+        <v>18</v>
+      </c>
+      <c r="BR38"/>
+      <c r="BS38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>20146</v>
+      </c>
+      <c r="B39" t="s">
+        <v>240</v>
+      </c>
+      <c r="C39" t="s">
+        <v>232</v>
+      </c>
+      <c r="D39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" t="s">
+        <v>76</v>
+      </c>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L39" t="s">
+        <v>241</v>
+      </c>
+      <c r="M39" t="s">
+        <v>79</v>
+      </c>
+      <c r="N39" t="s">
+        <v>80</v>
+      </c>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39" t="s">
+        <v>80</v>
+      </c>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39" t="s">
+        <v>81</v>
+      </c>
+      <c r="U39" t="s">
+        <v>82</v>
+      </c>
+      <c r="V39" t="s">
+        <v>83</v>
+      </c>
+      <c r="W39" t="s">
+        <v>84</v>
+      </c>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+      <c r="AE39" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM39"/>
+      <c r="AN39"/>
+      <c r="AO39"/>
+      <c r="AP39" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX39"/>
+      <c r="AY39"/>
+      <c r="AZ39"/>
+      <c r="BA39"/>
+      <c r="BB39"/>
+      <c r="BC39"/>
+      <c r="BD39"/>
+      <c r="BE39" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG39"/>
+      <c r="BH39"/>
+      <c r="BI39"/>
+      <c r="BJ39"/>
+      <c r="BK39"/>
+      <c r="BL39"/>
+      <c r="BM39" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN39"/>
+      <c r="BO39"/>
+      <c r="BP39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ39" t="n">
+        <v>30</v>
+      </c>
+      <c r="BR39"/>
+      <c r="BS39" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>20149</v>
+      </c>
+      <c r="B40" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40" t="s">
+        <v>232</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" t="s">
+        <v>76</v>
+      </c>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40" t="s">
+        <v>77</v>
+      </c>
+      <c r="L40" t="s">
+        <v>244</v>
+      </c>
+      <c r="M40" t="s">
+        <v>79</v>
+      </c>
+      <c r="N40" t="s">
+        <v>80</v>
+      </c>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40" t="s">
+        <v>80</v>
+      </c>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40" t="s">
+        <v>81</v>
+      </c>
+      <c r="U40" t="s">
+        <v>82</v>
+      </c>
+      <c r="V40" t="s">
+        <v>83</v>
+      </c>
+      <c r="W40" t="s">
+        <v>84</v>
+      </c>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG40"/>
+      <c r="AH40" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM40"/>
+      <c r="AN40"/>
+      <c r="AO40"/>
+      <c r="AP40" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX40"/>
+      <c r="AY40"/>
+      <c r="AZ40"/>
+      <c r="BA40"/>
+      <c r="BB40"/>
+      <c r="BC40"/>
+      <c r="BD40"/>
+      <c r="BE40" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG40"/>
+      <c r="BH40"/>
+      <c r="BI40"/>
+      <c r="BJ40"/>
+      <c r="BK40"/>
+      <c r="BL40"/>
+      <c r="BM40" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN40"/>
+      <c r="BO40"/>
+      <c r="BP40" t="n">
+        <v>50</v>
+      </c>
+      <c r="BQ40" t="n">
+        <v>30</v>
+      </c>
+      <c r="BR40"/>
+      <c r="BS40" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>20150</v>
+      </c>
+      <c r="B41" t="s">
+        <v>248</v>
+      </c>
+      <c r="C41" t="s">
+        <v>232</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" t="s">
+        <v>76</v>
+      </c>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41" t="s">
+        <v>77</v>
+      </c>
+      <c r="L41" t="s">
+        <v>111</v>
+      </c>
+      <c r="M41" t="s">
+        <v>79</v>
+      </c>
+      <c r="N41" t="s">
+        <v>80</v>
+      </c>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41" t="s">
+        <v>80</v>
+      </c>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41" t="s">
+        <v>81</v>
+      </c>
+      <c r="U41" t="s">
+        <v>82</v>
+      </c>
+      <c r="V41" t="s">
+        <v>83</v>
+      </c>
+      <c r="W41" t="s">
+        <v>84</v>
+      </c>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+      <c r="AE41" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG41"/>
+      <c r="AH41" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM41"/>
+      <c r="AN41"/>
+      <c r="AO41"/>
+      <c r="AP41" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>85</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX41"/>
+      <c r="AY41"/>
+      <c r="AZ41"/>
+      <c r="BA41"/>
+      <c r="BB41"/>
+      <c r="BC41"/>
+      <c r="BD41"/>
+      <c r="BE41" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG41"/>
+      <c r="BH41"/>
+      <c r="BI41"/>
+      <c r="BJ41"/>
+      <c r="BK41"/>
+      <c r="BL41"/>
+      <c r="BM41" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN41"/>
+      <c r="BO41"/>
+      <c r="BP41" t="n">
+        <v>120</v>
+      </c>
+      <c r="BQ41" t="n">
+        <v>30</v>
+      </c>
+      <c r="BR41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BS41" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>20151</v>
+      </c>
+      <c r="B42" t="s">
+        <v>251</v>
+      </c>
+      <c r="C42" t="s">
+        <v>232</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42" t="s">
+        <v>77</v>
+      </c>
+      <c r="L42" t="s">
+        <v>252</v>
+      </c>
+      <c r="M42" t="s">
+        <v>79</v>
+      </c>
+      <c r="N42" t="s">
+        <v>80</v>
+      </c>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42" t="s">
+        <v>80</v>
+      </c>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42" t="s">
+        <v>81</v>
+      </c>
+      <c r="U42" t="s">
+        <v>82</v>
+      </c>
+      <c r="V42" t="s">
+        <v>83</v>
+      </c>
+      <c r="W42" t="s">
+        <v>84</v>
+      </c>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+      <c r="AE42" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM42"/>
+      <c r="AN42"/>
+      <c r="AO42"/>
+      <c r="AP42" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX42"/>
+      <c r="AY42"/>
+      <c r="AZ42"/>
+      <c r="BA42"/>
+      <c r="BB42"/>
+      <c r="BC42"/>
+      <c r="BD42"/>
+      <c r="BE42" t="n">
+        <v>40</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG42"/>
+      <c r="BH42"/>
+      <c r="BI42"/>
+      <c r="BJ42"/>
+      <c r="BK42"/>
+      <c r="BL42"/>
+      <c r="BM42" t="n">
+        <v>90</v>
+      </c>
+      <c r="BN42"/>
+      <c r="BO42"/>
+      <c r="BP42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ42" t="n">
+        <v>16</v>
+      </c>
+      <c r="BR42"/>
+      <c r="BS42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>20152</v>
+      </c>
+      <c r="B43" t="s">
+        <v>254</v>
+      </c>
+      <c r="C43" t="s">
+        <v>232</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43" t="s">
+        <v>76</v>
+      </c>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43" t="s">
+        <v>77</v>
+      </c>
+      <c r="L43" t="s">
+        <v>127</v>
+      </c>
+      <c r="M43" t="s">
+        <v>79</v>
+      </c>
+      <c r="N43" t="s">
+        <v>80</v>
+      </c>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43" t="s">
+        <v>80</v>
+      </c>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43" t="s">
+        <v>81</v>
+      </c>
+      <c r="U43" t="s">
+        <v>82</v>
+      </c>
+      <c r="V43" t="s">
+        <v>83</v>
+      </c>
+      <c r="W43" t="s">
+        <v>84</v>
+      </c>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG43"/>
+      <c r="AH43" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM43"/>
+      <c r="AN43"/>
+      <c r="AO43"/>
+      <c r="AP43" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX43"/>
+      <c r="AY43"/>
+      <c r="AZ43"/>
+      <c r="BA43"/>
+      <c r="BB43"/>
+      <c r="BC43"/>
+      <c r="BD43"/>
+      <c r="BE43" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF43" t="s">
+        <v>200</v>
+      </c>
+      <c r="BG43"/>
+      <c r="BH43"/>
+      <c r="BI43"/>
+      <c r="BJ43"/>
+      <c r="BK43"/>
+      <c r="BL43"/>
+      <c r="BM43" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN43"/>
+      <c r="BO43"/>
+      <c r="BP43" t="n">
+        <v>9</v>
+      </c>
+      <c r="BQ43" t="n">
+        <v>12</v>
+      </c>
+      <c r="BR43"/>
+      <c r="BS43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>20153</v>
+      </c>
+      <c r="B44" t="s">
+        <v>256</v>
+      </c>
+      <c r="C44" t="s">
+        <v>232</v>
+      </c>
+      <c r="D44" t="n">
+        <v>750</v>
+      </c>
+      <c r="E44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" t="s">
+        <v>75</v>
+      </c>
+      <c r="H44" t="s">
+        <v>76</v>
+      </c>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44" t="s">
+        <v>77</v>
+      </c>
+      <c r="L44" t="s">
+        <v>257</v>
+      </c>
+      <c r="M44" t="s">
+        <v>79</v>
+      </c>
+      <c r="N44" t="s">
+        <v>80</v>
+      </c>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44" t="s">
+        <v>80</v>
+      </c>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44" t="s">
+        <v>81</v>
+      </c>
+      <c r="U44" t="s">
+        <v>82</v>
+      </c>
+      <c r="V44" t="s">
+        <v>83</v>
+      </c>
+      <c r="W44" t="s">
+        <v>84</v>
+      </c>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM44"/>
+      <c r="AN44"/>
+      <c r="AO44"/>
+      <c r="AP44" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX44"/>
+      <c r="AY44"/>
+      <c r="AZ44"/>
+      <c r="BA44"/>
+      <c r="BB44"/>
+      <c r="BC44"/>
+      <c r="BD44"/>
+      <c r="BE44" t="n">
+        <v>40</v>
+      </c>
+      <c r="BF44" t="s">
+        <v>249</v>
+      </c>
+      <c r="BG44"/>
+      <c r="BH44"/>
+      <c r="BI44"/>
+      <c r="BJ44"/>
+      <c r="BK44"/>
+      <c r="BL44"/>
+      <c r="BM44" t="n">
+        <v>90</v>
+      </c>
+      <c r="BN44"/>
+      <c r="BO44"/>
+      <c r="BP44" t="n">
+        <v>18</v>
+      </c>
+      <c r="BQ44"/>
+      <c r="BR44"/>
+      <c r="BS44" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>20156</v>
+      </c>
+      <c r="B45" t="s">
+        <v>259</v>
+      </c>
+      <c r="C45" t="s">
+        <v>260</v>
+      </c>
+      <c r="D45" t="n">
+        <v>100</v>
+      </c>
+      <c r="E45" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45" t="s">
+        <v>76</v>
+      </c>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45" t="s">
+        <v>77</v>
+      </c>
+      <c r="L45" t="s">
+        <v>261</v>
+      </c>
+      <c r="M45" t="s">
+        <v>79</v>
+      </c>
+      <c r="N45" t="s">
+        <v>80</v>
+      </c>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45" t="s">
+        <v>80</v>
+      </c>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45" t="s">
+        <v>81</v>
+      </c>
+      <c r="U45" t="s">
+        <v>82</v>
+      </c>
+      <c r="V45" t="s">
+        <v>83</v>
+      </c>
+      <c r="W45" t="s">
+        <v>84</v>
+      </c>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM45"/>
+      <c r="AN45"/>
+      <c r="AO45"/>
+      <c r="AP45" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX45"/>
+      <c r="AY45"/>
+      <c r="AZ45"/>
+      <c r="BA45"/>
+      <c r="BB45"/>
+      <c r="BC45"/>
+      <c r="BD45"/>
+      <c r="BE45" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF45" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG45"/>
+      <c r="BH45"/>
+      <c r="BI45"/>
+      <c r="BJ45"/>
+      <c r="BK45"/>
+      <c r="BL45"/>
+      <c r="BM45" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN45"/>
+      <c r="BO45"/>
+      <c r="BP45" t="n">
+        <v>27</v>
+      </c>
+      <c r="BQ45" t="n">
+        <v>30</v>
+      </c>
+      <c r="BR45"/>
+      <c r="BS45" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>20158</v>
+      </c>
+      <c r="B46" t="s">
+        <v>263</v>
+      </c>
+      <c r="C46" t="s">
+        <v>260</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46" t="s">
+        <v>75</v>
+      </c>
+      <c r="H46" t="s">
+        <v>76</v>
+      </c>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46" t="s">
+        <v>77</v>
+      </c>
+      <c r="L46" t="s">
+        <v>261</v>
+      </c>
+      <c r="M46" t="s">
+        <v>79</v>
+      </c>
+      <c r="N46" t="s">
+        <v>80</v>
+      </c>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46" t="s">
+        <v>80</v>
+      </c>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46" t="s">
+        <v>81</v>
+      </c>
+      <c r="U46" t="s">
+        <v>82</v>
+      </c>
+      <c r="V46" t="s">
+        <v>83</v>
+      </c>
+      <c r="W46" t="s">
+        <v>84</v>
+      </c>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG46"/>
+      <c r="AH46" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM46"/>
+      <c r="AN46"/>
+      <c r="AO46"/>
+      <c r="AP46" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX46"/>
+      <c r="AY46"/>
+      <c r="AZ46"/>
+      <c r="BA46"/>
+      <c r="BB46"/>
+      <c r="BC46"/>
+      <c r="BD46"/>
+      <c r="BE46" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF46" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG46"/>
+      <c r="BH46"/>
+      <c r="BI46"/>
+      <c r="BJ46"/>
+      <c r="BK46"/>
+      <c r="BL46"/>
+      <c r="BM46" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN46"/>
+      <c r="BO46"/>
+      <c r="BP46" t="n">
+        <v>37</v>
+      </c>
+      <c r="BQ46" t="n">
+        <v>28</v>
+      </c>
+      <c r="BR46"/>
+      <c r="BS46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>20159</v>
+      </c>
+      <c r="B47" t="s">
+        <v>264</v>
+      </c>
+      <c r="C47" t="s">
+        <v>260</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" t="s">
+        <v>76</v>
+      </c>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47" t="s">
+        <v>77</v>
+      </c>
+      <c r="L47" t="s">
+        <v>265</v>
+      </c>
+      <c r="M47" t="s">
+        <v>79</v>
+      </c>
+      <c r="N47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47" t="s">
+        <v>80</v>
+      </c>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47" t="s">
+        <v>81</v>
+      </c>
+      <c r="U47" t="s">
+        <v>82</v>
+      </c>
+      <c r="V47" t="s">
+        <v>83</v>
+      </c>
+      <c r="W47" t="s">
+        <v>84</v>
+      </c>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG47"/>
+      <c r="AH47" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM47"/>
+      <c r="AN47"/>
+      <c r="AO47"/>
+      <c r="AP47" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX47"/>
+      <c r="AY47"/>
+      <c r="AZ47"/>
+      <c r="BA47"/>
+      <c r="BB47"/>
+      <c r="BC47"/>
+      <c r="BD47"/>
+      <c r="BE47" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF47" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG47"/>
+      <c r="BH47"/>
+      <c r="BI47"/>
+      <c r="BJ47"/>
+      <c r="BK47"/>
+      <c r="BL47"/>
+      <c r="BM47" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN47"/>
+      <c r="BO47"/>
+      <c r="BP47" t="n">
+        <v>25</v>
+      </c>
+      <c r="BQ47" t="n">
+        <v>30</v>
+      </c>
+      <c r="BR47" t="n">
+        <v>3</v>
+      </c>
+      <c r="BS47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>20161</v>
+      </c>
+      <c r="B48" t="s">
+        <v>267</v>
+      </c>
+      <c r="C48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48" t="s">
+        <v>77</v>
+      </c>
+      <c r="L48" t="s">
+        <v>269</v>
+      </c>
+      <c r="M48" t="s">
+        <v>79</v>
+      </c>
+      <c r="N48" t="s">
+        <v>80</v>
+      </c>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48" t="s">
+        <v>80</v>
+      </c>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48" t="s">
+        <v>81</v>
+      </c>
+      <c r="U48" t="s">
+        <v>82</v>
+      </c>
+      <c r="V48" t="s">
+        <v>83</v>
+      </c>
+      <c r="W48" t="s">
+        <v>84</v>
+      </c>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+      <c r="AE48" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG48"/>
+      <c r="AH48" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM48"/>
+      <c r="AN48"/>
+      <c r="AO48"/>
+      <c r="AP48" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX48"/>
+      <c r="AY48"/>
+      <c r="AZ48"/>
+      <c r="BA48"/>
+      <c r="BB48"/>
+      <c r="BC48"/>
+      <c r="BD48"/>
+      <c r="BE48" t="n">
+        <v>60</v>
+      </c>
+      <c r="BF48" t="s">
+        <v>135</v>
+      </c>
+      <c r="BG48"/>
+      <c r="BH48"/>
+      <c r="BI48"/>
+      <c r="BJ48"/>
+      <c r="BK48"/>
+      <c r="BL48" t="n">
+        <v>40</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>90</v>
+      </c>
+      <c r="BN48"/>
+      <c r="BO48"/>
+      <c r="BP48" t="n">
+        <v>68</v>
+      </c>
+      <c r="BQ48" t="n">
+        <v>22</v>
+      </c>
+      <c r="BR48"/>
+      <c r="BS48" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>20162</v>
+      </c>
+      <c r="B49" t="s">
+        <v>271</v>
+      </c>
+      <c r="C49" t="s">
+        <v>268</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" t="s">
+        <v>76</v>
+      </c>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49" t="s">
+        <v>77</v>
+      </c>
+      <c r="L49" t="s">
+        <v>272</v>
+      </c>
+      <c r="M49" t="s">
+        <v>79</v>
+      </c>
+      <c r="N49" t="s">
+        <v>80</v>
+      </c>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49" t="s">
+        <v>80</v>
+      </c>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49" t="s">
+        <v>81</v>
+      </c>
+      <c r="U49" t="s">
+        <v>82</v>
+      </c>
+      <c r="V49" t="s">
+        <v>83</v>
+      </c>
+      <c r="W49" t="s">
+        <v>84</v>
+      </c>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG49"/>
+      <c r="AH49" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM49"/>
+      <c r="AN49"/>
+      <c r="AO49"/>
+      <c r="AP49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX49"/>
+      <c r="AY49"/>
+      <c r="AZ49"/>
+      <c r="BA49"/>
+      <c r="BB49"/>
+      <c r="BC49"/>
+      <c r="BD49"/>
+      <c r="BE49" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF49" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG49"/>
+      <c r="BH49"/>
+      <c r="BI49"/>
+      <c r="BJ49"/>
+      <c r="BK49"/>
+      <c r="BL49"/>
+      <c r="BM49" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN49"/>
+      <c r="BO49"/>
+      <c r="BP49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ49" t="n">
+        <v>55</v>
+      </c>
+      <c r="BR49"/>
+      <c r="BS49" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>20164</v>
+      </c>
+      <c r="B50" t="s">
+        <v>274</v>
+      </c>
+      <c r="C50" t="s">
+        <v>268</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50" t="s">
+        <v>77</v>
+      </c>
+      <c r="L50" t="s">
+        <v>275</v>
+      </c>
+      <c r="M50" t="s">
+        <v>79</v>
+      </c>
+      <c r="N50" t="s">
+        <v>80</v>
+      </c>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50" t="s">
+        <v>80</v>
+      </c>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50" t="s">
+        <v>81</v>
+      </c>
+      <c r="U50" t="s">
+        <v>82</v>
+      </c>
+      <c r="V50" t="s">
+        <v>83</v>
+      </c>
+      <c r="W50" t="s">
+        <v>84</v>
+      </c>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG50"/>
+      <c r="AH50" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM50"/>
+      <c r="AN50"/>
+      <c r="AO50"/>
+      <c r="AP50" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX50"/>
+      <c r="AY50"/>
+      <c r="AZ50"/>
+      <c r="BA50"/>
+      <c r="BB50"/>
+      <c r="BC50"/>
+      <c r="BD50"/>
+      <c r="BE50" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF50" t="s">
+        <v>249</v>
+      </c>
+      <c r="BG50"/>
+      <c r="BH50"/>
+      <c r="BI50"/>
+      <c r="BJ50"/>
+      <c r="BK50"/>
+      <c r="BL50"/>
+      <c r="BM50" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN50"/>
+      <c r="BO50"/>
+      <c r="BP50" t="n">
+        <v>14</v>
+      </c>
+      <c r="BQ50" t="n">
+        <v>20</v>
+      </c>
+      <c r="BR50"/>
+      <c r="BS50" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>20166</v>
+      </c>
+      <c r="B51" t="s">
+        <v>278</v>
+      </c>
+      <c r="C51" t="s">
+        <v>268</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" t="s">
+        <v>76</v>
+      </c>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51" t="s">
+        <v>77</v>
+      </c>
+      <c r="L51" t="s">
+        <v>279</v>
+      </c>
+      <c r="M51" t="s">
+        <v>79</v>
+      </c>
+      <c r="N51" t="s">
+        <v>80</v>
+      </c>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51" t="s">
+        <v>80</v>
+      </c>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51" t="s">
+        <v>81</v>
+      </c>
+      <c r="U51" t="s">
+        <v>82</v>
+      </c>
+      <c r="V51" t="s">
+        <v>83</v>
+      </c>
+      <c r="W51" t="s">
+        <v>84</v>
+      </c>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG51"/>
+      <c r="AH51" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM51"/>
+      <c r="AN51"/>
+      <c r="AO51"/>
+      <c r="AP51" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX51"/>
+      <c r="AY51"/>
+      <c r="AZ51"/>
+      <c r="BA51"/>
+      <c r="BB51"/>
+      <c r="BC51"/>
+      <c r="BD51"/>
+      <c r="BE51" t="n">
+        <v>40</v>
+      </c>
+      <c r="BF51" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG51"/>
+      <c r="BH51"/>
+      <c r="BI51"/>
+      <c r="BJ51"/>
+      <c r="BK51"/>
+      <c r="BL51"/>
+      <c r="BM51" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN51"/>
+      <c r="BO51"/>
+      <c r="BP51" t="n">
+        <v>30</v>
+      </c>
+      <c r="BQ51" t="n">
+        <v>28</v>
+      </c>
+      <c r="BR51"/>
+      <c r="BS51" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>20167</v>
+      </c>
+      <c r="B52" t="s">
+        <v>282</v>
+      </c>
+      <c r="C52" t="s">
+        <v>268</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" t="s">
+        <v>74</v>
+      </c>
+      <c r="G52" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" t="s">
+        <v>76</v>
+      </c>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52" t="s">
+        <v>77</v>
+      </c>
+      <c r="L52" t="s">
+        <v>283</v>
+      </c>
+      <c r="M52" t="s">
+        <v>79</v>
+      </c>
+      <c r="N52" t="s">
+        <v>80</v>
+      </c>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52" t="s">
+        <v>80</v>
+      </c>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52" t="s">
+        <v>81</v>
+      </c>
+      <c r="U52" t="s">
+        <v>82</v>
+      </c>
+      <c r="V52" t="s">
+        <v>83</v>
+      </c>
+      <c r="W52" t="s">
+        <v>84</v>
+      </c>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+      <c r="AE52" t="s">
+        <v>284</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>158</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM52"/>
+      <c r="AN52"/>
+      <c r="AO52"/>
+      <c r="AP52" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX52"/>
+      <c r="AY52"/>
+      <c r="AZ52"/>
+      <c r="BA52"/>
+      <c r="BB52"/>
+      <c r="BC52"/>
+      <c r="BD52"/>
+      <c r="BE52" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF52" t="s">
+        <v>135</v>
+      </c>
+      <c r="BG52"/>
+      <c r="BH52"/>
+      <c r="BI52"/>
+      <c r="BJ52"/>
+      <c r="BK52"/>
+      <c r="BL52"/>
+      <c r="BM52" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN52"/>
+      <c r="BO52"/>
+      <c r="BP52" t="n">
+        <v>25</v>
+      </c>
+      <c r="BQ52" t="n">
+        <v>15</v>
+      </c>
+      <c r="BR52"/>
+      <c r="BS52" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>20168</v>
+      </c>
+      <c r="B53" t="s">
+        <v>286</v>
+      </c>
+      <c r="C53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" t="s">
+        <v>75</v>
+      </c>
+      <c r="H53" t="s">
+        <v>76</v>
+      </c>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53" t="s">
+        <v>77</v>
+      </c>
+      <c r="L53" t="s">
+        <v>287</v>
+      </c>
+      <c r="M53" t="s">
+        <v>79</v>
+      </c>
+      <c r="N53" t="s">
+        <v>80</v>
+      </c>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53" t="s">
+        <v>80</v>
+      </c>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53" t="s">
+        <v>81</v>
+      </c>
+      <c r="U53" t="s">
+        <v>82</v>
+      </c>
+      <c r="V53" t="s">
+        <v>83</v>
+      </c>
+      <c r="W53" t="s">
+        <v>84</v>
+      </c>
+      <c r="X53"/>
+      <c r="Y53"/>
+      <c r="Z53" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+      <c r="AE53" t="s">
+        <v>284</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>158</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM53"/>
+      <c r="AN53"/>
+      <c r="AO53"/>
+      <c r="AP53" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX53"/>
+      <c r="AY53"/>
+      <c r="AZ53"/>
+      <c r="BA53"/>
+      <c r="BB53"/>
+      <c r="BC53"/>
+      <c r="BD53"/>
+      <c r="BE53" t="n">
+        <v>40</v>
+      </c>
+      <c r="BF53" t="s">
+        <v>135</v>
+      </c>
+      <c r="BG53"/>
+      <c r="BH53"/>
+      <c r="BI53"/>
+      <c r="BJ53"/>
+      <c r="BK53"/>
+      <c r="BL53"/>
+      <c r="BM53" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN53"/>
+      <c r="BO53"/>
+      <c r="BP53" t="n">
+        <v>20</v>
+      </c>
+      <c r="BQ53" t="n">
+        <v>20</v>
+      </c>
+      <c r="BR53"/>
+      <c r="BS53" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>20169</v>
+      </c>
+      <c r="B54" t="s">
+        <v>289</v>
+      </c>
+      <c r="C54" t="s">
+        <v>268</v>
+      </c>
+      <c r="D54" t="n">
+        <v>100</v>
+      </c>
+      <c r="E54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" t="s">
+        <v>74</v>
+      </c>
+      <c r="G54" t="s">
+        <v>75</v>
+      </c>
+      <c r="H54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54" t="s">
+        <v>77</v>
+      </c>
+      <c r="L54" t="s">
+        <v>290</v>
+      </c>
+      <c r="M54" t="s">
+        <v>79</v>
+      </c>
+      <c r="N54" t="s">
+        <v>80</v>
+      </c>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54" t="s">
+        <v>80</v>
+      </c>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54" t="s">
+        <v>81</v>
+      </c>
+      <c r="U54" t="s">
+        <v>82</v>
+      </c>
+      <c r="V54" t="s">
+        <v>83</v>
+      </c>
+      <c r="W54" t="s">
+        <v>84</v>
+      </c>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+      <c r="AE54" t="s">
+        <v>284</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>158</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM54"/>
+      <c r="AN54"/>
+      <c r="AO54"/>
+      <c r="AP54" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX54"/>
+      <c r="AY54"/>
+      <c r="AZ54"/>
+      <c r="BA54"/>
+      <c r="BB54"/>
+      <c r="BC54"/>
+      <c r="BD54"/>
+      <c r="BE54" t="n">
+        <v>40</v>
+      </c>
+      <c r="BF54" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG54"/>
+      <c r="BH54"/>
+      <c r="BI54"/>
+      <c r="BJ54"/>
+      <c r="BK54"/>
+      <c r="BL54"/>
+      <c r="BM54" t="n">
+        <v>80</v>
+      </c>
+      <c r="BN54"/>
+      <c r="BO54"/>
+      <c r="BP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ54" t="n">
+        <v>40</v>
+      </c>
+      <c r="BR54"/>
+      <c r="BS54" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>20171</v>
+      </c>
+      <c r="B55" t="s">
+        <v>292</v>
+      </c>
+      <c r="C55" t="s">
+        <v>268</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" t="s">
+        <v>75</v>
+      </c>
+      <c r="H55" t="s">
+        <v>76</v>
+      </c>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55" t="s">
+        <v>77</v>
+      </c>
+      <c r="L55" t="s">
+        <v>293</v>
+      </c>
+      <c r="M55" t="s">
+        <v>79</v>
+      </c>
+      <c r="N55" t="s">
+        <v>80</v>
+      </c>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55" t="s">
+        <v>80</v>
+      </c>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55" t="s">
+        <v>81</v>
+      </c>
+      <c r="U55" t="s">
+        <v>82</v>
+      </c>
+      <c r="V55" t="s">
+        <v>83</v>
+      </c>
+      <c r="W55" t="s">
+        <v>84</v>
+      </c>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+      <c r="AE55" t="s">
+        <v>284</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>158</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM55"/>
+      <c r="AN55"/>
+      <c r="AO55"/>
+      <c r="AP55" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX55"/>
+      <c r="AY55"/>
+      <c r="AZ55"/>
+      <c r="BA55"/>
+      <c r="BB55"/>
+      <c r="BC55"/>
+      <c r="BD55"/>
+      <c r="BE55" t="n">
+        <v>40</v>
+      </c>
+      <c r="BF55" t="s">
+        <v>135</v>
+      </c>
+      <c r="BG55"/>
+      <c r="BH55"/>
+      <c r="BI55"/>
+      <c r="BJ55"/>
+      <c r="BK55"/>
+      <c r="BL55"/>
+      <c r="BM55" t="n">
+        <v>90</v>
+      </c>
+      <c r="BN55"/>
+      <c r="BO55"/>
+      <c r="BP55" t="n">
+        <v>14</v>
+      </c>
+      <c r="BQ55" t="n">
+        <v>30</v>
+      </c>
+      <c r="BR55"/>
+      <c r="BS55" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>20172</v>
+      </c>
+      <c r="B56" t="s">
+        <v>295</v>
+      </c>
+      <c r="C56" t="s">
+        <v>268</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E56" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56" t="s">
+        <v>76</v>
+      </c>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56" t="s">
+        <v>77</v>
+      </c>
+      <c r="L56" t="s">
+        <v>275</v>
+      </c>
+      <c r="M56" t="s">
+        <v>79</v>
+      </c>
+      <c r="N56" t="s">
+        <v>80</v>
+      </c>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56" t="s">
+        <v>80</v>
+      </c>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56" t="s">
+        <v>81</v>
+      </c>
+      <c r="U56" t="s">
+        <v>82</v>
+      </c>
+      <c r="V56" t="s">
+        <v>83</v>
+      </c>
+      <c r="W56" t="s">
+        <v>84</v>
+      </c>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG56"/>
+      <c r="AH56" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM56"/>
+      <c r="AN56"/>
+      <c r="AO56"/>
+      <c r="AP56" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX56"/>
+      <c r="AY56"/>
+      <c r="AZ56"/>
+      <c r="BA56"/>
+      <c r="BB56"/>
+      <c r="BC56"/>
+      <c r="BD56"/>
+      <c r="BE56" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF56" t="s">
+        <v>249</v>
+      </c>
+      <c r="BG56"/>
+      <c r="BH56"/>
+      <c r="BI56"/>
+      <c r="BJ56"/>
+      <c r="BK56"/>
+      <c r="BL56"/>
+      <c r="BM56" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN56"/>
+      <c r="BO56"/>
+      <c r="BP56" t="n">
+        <v>18</v>
+      </c>
+      <c r="BQ56" t="n">
+        <v>15</v>
+      </c>
+      <c r="BR56"/>
+      <c r="BS56" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>20173</v>
+      </c>
+      <c r="B57" t="s">
+        <v>297</v>
+      </c>
+      <c r="C57" t="s">
+        <v>268</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57" t="s">
+        <v>74</v>
+      </c>
+      <c r="G57" t="s">
+        <v>75</v>
+      </c>
+      <c r="H57" t="s">
+        <v>76</v>
+      </c>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57" t="s">
+        <v>77</v>
+      </c>
+      <c r="L57" t="s">
+        <v>298</v>
+      </c>
+      <c r="M57" t="s">
+        <v>79</v>
+      </c>
+      <c r="N57" t="s">
+        <v>80</v>
+      </c>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57" t="s">
+        <v>80</v>
+      </c>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57" t="s">
+        <v>81</v>
+      </c>
+      <c r="U57" t="s">
+        <v>82</v>
+      </c>
+      <c r="V57" t="s">
+        <v>83</v>
+      </c>
+      <c r="W57" t="s">
+        <v>84</v>
+      </c>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG57"/>
+      <c r="AH57" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM57"/>
+      <c r="AN57"/>
+      <c r="AO57"/>
+      <c r="AP57" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ57" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX57"/>
+      <c r="AY57"/>
+      <c r="AZ57"/>
+      <c r="BA57"/>
+      <c r="BB57"/>
+      <c r="BC57"/>
+      <c r="BD57"/>
+      <c r="BE57" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF57" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG57"/>
+      <c r="BH57"/>
+      <c r="BI57"/>
+      <c r="BJ57"/>
+      <c r="BK57"/>
+      <c r="BL57"/>
+      <c r="BM57" t="n">
+        <v>50</v>
+      </c>
+      <c r="BN57"/>
+      <c r="BO57"/>
+      <c r="BP57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ57" t="n">
+        <v>28</v>
+      </c>
+      <c r="BR57"/>
+      <c r="BS57" t="s">
+        <v>294</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/media/subset_env.xlsx
+++ b/media/subset_env.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t xml:space="preserve">RELEVE_NR</t>
   </si>
@@ -225,6 +225,252 @@
   </si>
   <si>
     <t xml:space="preserve">REMARKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_107(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20050727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD_NM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salix lanata-Calamagrostis canadensis s. langsdorffii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOVAN_KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bovanenkovo Gas Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LW_PLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. neighbouring releve N20086 and the old road; hummock 30 cm high; cover of herb layer = 60 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_108(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calamagrostis neglecta-Poa arctica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. the old (about 20 years old) road in willows, 20-25 m wide with many tracks; cover of herb layer = 50 percent (20 percent of it is litter); there are more Carex and Eriophorum species in wet depressions and graminoids in dry places, rare - flat hummocks (height=60-80 cm) with Calamagrostis species; dry place, flat microrelief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_108(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calamagrostis neglecta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.387694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.450333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. the old (about 20 years old) road in willows, 20-25 m wide with many tracks; cover of herb layer = 60-70 percent; dry updrawn part of the road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_108(5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carex aquatilis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. the old (about 20 years old) road in willows, 20-25 m wide with many tracks; cover of herb layer = 90 percent; relatevely dry fragment of the road along the willows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salix lanata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.388194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.447750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. along the road; hummocks with dry willows and depressions with more herbs and segdes; cover of herb layer = 40 percent; height of Betula nana = 40-50 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_113(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20050728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deschampsia obensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.392750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.450056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. dry and cracked landslide shearing surface; remain fragments of parent community (releve N 20108); cover of herb layer = 45-50 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_116а</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20050729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.397556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.439806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. near gang of wells; tracks; cover of herb layer = 80 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_119(1а)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carex aquatilis-Eriophorum angustifolium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. rare moss hummocks; tracks; cover of herb layer = 90 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_119(1б)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calamagrostis neglecta-Carex aquatilis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. cover of herb layer = 70 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. cracked landslide shearing surface; surrounded by willows; remain some hummocks with parent vegetation; cover of herb layer = 50 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_122(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puccinellia hauptiana-Tripleurospermum maritimum s. phaeocephalum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. convex landslide shearing surface; cover of herb layer = 60 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_124(4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betula nana-Hylocomium splendens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. dry lower convex part of landslide shearing surface; cover of herb layer = 60 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_142(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20050801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calamagrostis canadensis s. langsdorffii-Sanionia uncinata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in orig. dry track (4-5 m wide); cover of herb layer = 80 percent</t>
   </si>
 </sst>
 </file>
@@ -771,6 +1017,2021 @@
         <v>70</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>20087</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U2" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN2"/>
+      <c r="BO2"/>
+      <c r="BP2" t="n">
+        <v>30</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>40</v>
+      </c>
+      <c r="BR2"/>
+      <c r="BS2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>20089</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U3" t="s">
+        <v>82</v>
+      </c>
+      <c r="V3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3"/>
+      <c r="AY3"/>
+      <c r="AZ3"/>
+      <c r="BA3"/>
+      <c r="BB3"/>
+      <c r="BC3"/>
+      <c r="BD3"/>
+      <c r="BE3" t="n">
+        <v>80</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG3"/>
+      <c r="BH3"/>
+      <c r="BI3"/>
+      <c r="BJ3"/>
+      <c r="BK3"/>
+      <c r="BL3" t="n">
+        <v>20</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN3"/>
+      <c r="BO3"/>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>29</v>
+      </c>
+      <c r="BR3"/>
+      <c r="BS3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>20090</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4" t="s">
+        <v>81</v>
+      </c>
+      <c r="U4" t="s">
+        <v>82</v>
+      </c>
+      <c r="V4" t="s">
+        <v>83</v>
+      </c>
+      <c r="W4" t="s">
+        <v>84</v>
+      </c>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB4"/>
+      <c r="AC4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4"/>
+      <c r="AY4"/>
+      <c r="AZ4"/>
+      <c r="BA4"/>
+      <c r="BB4"/>
+      <c r="BC4"/>
+      <c r="BD4"/>
+      <c r="BE4" t="n">
+        <v>40</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG4"/>
+      <c r="BH4"/>
+      <c r="BI4"/>
+      <c r="BJ4"/>
+      <c r="BK4"/>
+      <c r="BL4"/>
+      <c r="BM4" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN4"/>
+      <c r="BO4"/>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4"/>
+      <c r="BR4"/>
+      <c r="BS4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20093</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5" t="s">
+        <v>80</v>
+      </c>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U5" t="s">
+        <v>82</v>
+      </c>
+      <c r="V5" t="s">
+        <v>83</v>
+      </c>
+      <c r="W5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5"/>
+      <c r="AY5"/>
+      <c r="AZ5"/>
+      <c r="BA5"/>
+      <c r="BB5"/>
+      <c r="BC5"/>
+      <c r="BD5"/>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG5"/>
+      <c r="BH5"/>
+      <c r="BI5"/>
+      <c r="BJ5"/>
+      <c r="BK5"/>
+      <c r="BL5"/>
+      <c r="BM5" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN5"/>
+      <c r="BO5"/>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>45</v>
+      </c>
+      <c r="BR5"/>
+      <c r="BS5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20094</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>111</v>
+      </c>
+      <c r="M6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U6" t="s">
+        <v>82</v>
+      </c>
+      <c r="V6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB6"/>
+      <c r="AC6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6"/>
+      <c r="AY6"/>
+      <c r="AZ6"/>
+      <c r="BA6"/>
+      <c r="BB6"/>
+      <c r="BC6"/>
+      <c r="BD6"/>
+      <c r="BE6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG6"/>
+      <c r="BH6"/>
+      <c r="BI6"/>
+      <c r="BJ6"/>
+      <c r="BK6"/>
+      <c r="BL6"/>
+      <c r="BM6" t="n">
+        <v>80</v>
+      </c>
+      <c r="BN6"/>
+      <c r="BO6"/>
+      <c r="BP6" t="n">
+        <v>75</v>
+      </c>
+      <c r="BQ6"/>
+      <c r="BR6"/>
+      <c r="BS6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>20106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" t="n">
+        <v>120</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7" t="s">
+        <v>81</v>
+      </c>
+      <c r="U7" t="s">
+        <v>82</v>
+      </c>
+      <c r="V7" t="s">
+        <v>83</v>
+      </c>
+      <c r="W7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB7"/>
+      <c r="AC7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7"/>
+      <c r="AY7"/>
+      <c r="AZ7"/>
+      <c r="BA7"/>
+      <c r="BB7"/>
+      <c r="BC7"/>
+      <c r="BD7"/>
+      <c r="BE7" t="n">
+        <v>20</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG7"/>
+      <c r="BH7"/>
+      <c r="BI7"/>
+      <c r="BJ7"/>
+      <c r="BK7"/>
+      <c r="BL7"/>
+      <c r="BM7" t="n">
+        <v>45</v>
+      </c>
+      <c r="BN7"/>
+      <c r="BO7"/>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>33</v>
+      </c>
+      <c r="BR7"/>
+      <c r="BS7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>20114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8" t="s">
+        <v>81</v>
+      </c>
+      <c r="U8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V8" t="s">
+        <v>83</v>
+      </c>
+      <c r="W8" t="s">
+        <v>84</v>
+      </c>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB8"/>
+      <c r="AC8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG8"/>
+      <c r="AH8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8"/>
+      <c r="AY8"/>
+      <c r="AZ8"/>
+      <c r="BA8"/>
+      <c r="BB8"/>
+      <c r="BC8"/>
+      <c r="BD8"/>
+      <c r="BE8" t="n">
+        <v>70</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG8"/>
+      <c r="BH8"/>
+      <c r="BI8"/>
+      <c r="BJ8"/>
+      <c r="BK8"/>
+      <c r="BL8"/>
+      <c r="BM8" t="n">
+        <v>90</v>
+      </c>
+      <c r="BN8"/>
+      <c r="BO8"/>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8"/>
+      <c r="BR8"/>
+      <c r="BS8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>20118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9" t="s">
+        <v>81</v>
+      </c>
+      <c r="U9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V9" t="s">
+        <v>83</v>
+      </c>
+      <c r="W9" t="s">
+        <v>84</v>
+      </c>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9"/>
+      <c r="AY9"/>
+      <c r="AZ9"/>
+      <c r="BA9"/>
+      <c r="BB9"/>
+      <c r="BC9"/>
+      <c r="BD9"/>
+      <c r="BE9" t="n">
+        <v>40</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG9"/>
+      <c r="BH9"/>
+      <c r="BI9"/>
+      <c r="BJ9"/>
+      <c r="BK9"/>
+      <c r="BL9"/>
+      <c r="BM9" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN9"/>
+      <c r="BO9"/>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>40</v>
+      </c>
+      <c r="BR9"/>
+      <c r="BS9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>20119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" t="s">
+        <v>136</v>
+      </c>
+      <c r="M10" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10" t="s">
+        <v>81</v>
+      </c>
+      <c r="U10" t="s">
+        <v>82</v>
+      </c>
+      <c r="V10" t="s">
+        <v>83</v>
+      </c>
+      <c r="W10" t="s">
+        <v>84</v>
+      </c>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG10"/>
+      <c r="AH10" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10"/>
+      <c r="AY10"/>
+      <c r="AZ10"/>
+      <c r="BA10"/>
+      <c r="BB10"/>
+      <c r="BC10"/>
+      <c r="BD10"/>
+      <c r="BE10" t="n">
+        <v>70</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG10"/>
+      <c r="BH10"/>
+      <c r="BI10"/>
+      <c r="BJ10"/>
+      <c r="BK10"/>
+      <c r="BL10"/>
+      <c r="BM10" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN10"/>
+      <c r="BO10"/>
+      <c r="BP10" t="n">
+        <v>9</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>25</v>
+      </c>
+      <c r="BR10"/>
+      <c r="BS10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>20123</v>
+      </c>
+      <c r="B11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" t="n">
+        <v>850</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11" t="s">
+        <v>81</v>
+      </c>
+      <c r="U11" t="s">
+        <v>82</v>
+      </c>
+      <c r="V11" t="s">
+        <v>83</v>
+      </c>
+      <c r="W11" t="s">
+        <v>84</v>
+      </c>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG11"/>
+      <c r="AH11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11"/>
+      <c r="AY11"/>
+      <c r="AZ11"/>
+      <c r="BA11"/>
+      <c r="BB11"/>
+      <c r="BC11"/>
+      <c r="BD11"/>
+      <c r="BE11" t="n">
+        <v>30</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG11"/>
+      <c r="BH11"/>
+      <c r="BI11"/>
+      <c r="BJ11"/>
+      <c r="BK11"/>
+      <c r="BL11"/>
+      <c r="BM11" t="n">
+        <v>60</v>
+      </c>
+      <c r="BN11"/>
+      <c r="BO11"/>
+      <c r="BP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="BR11"/>
+      <c r="BS11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20124</v>
+      </c>
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12" t="s">
+        <v>81</v>
+      </c>
+      <c r="U12" t="s">
+        <v>82</v>
+      </c>
+      <c r="V12" t="s">
+        <v>83</v>
+      </c>
+      <c r="W12" t="s">
+        <v>84</v>
+      </c>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG12"/>
+      <c r="AH12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12"/>
+      <c r="AY12"/>
+      <c r="AZ12"/>
+      <c r="BA12"/>
+      <c r="BB12"/>
+      <c r="BC12"/>
+      <c r="BD12"/>
+      <c r="BE12" t="n">
+        <v>30</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG12"/>
+      <c r="BH12"/>
+      <c r="BI12"/>
+      <c r="BJ12"/>
+      <c r="BK12"/>
+      <c r="BL12"/>
+      <c r="BM12" t="n">
+        <v>70</v>
+      </c>
+      <c r="BN12"/>
+      <c r="BO12"/>
+      <c r="BP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>22</v>
+      </c>
+      <c r="BR12"/>
+      <c r="BS12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>20133</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13" t="s">
+        <v>81</v>
+      </c>
+      <c r="U13" t="s">
+        <v>82</v>
+      </c>
+      <c r="V13" t="s">
+        <v>83</v>
+      </c>
+      <c r="W13" t="s">
+        <v>84</v>
+      </c>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG13"/>
+      <c r="AH13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13"/>
+      <c r="AY13"/>
+      <c r="AZ13"/>
+      <c r="BA13"/>
+      <c r="BB13"/>
+      <c r="BC13"/>
+      <c r="BD13"/>
+      <c r="BE13" t="n">
+        <v>40</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG13"/>
+      <c r="BH13"/>
+      <c r="BI13"/>
+      <c r="BJ13"/>
+      <c r="BK13"/>
+      <c r="BL13"/>
+      <c r="BM13" t="n">
+        <v>70</v>
+      </c>
+      <c r="BN13"/>
+      <c r="BO13"/>
+      <c r="BP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>30</v>
+      </c>
+      <c r="BR13"/>
+      <c r="BS13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>20162</v>
+      </c>
+      <c r="B14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14" t="s">
+        <v>80</v>
+      </c>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14" t="s">
+        <v>81</v>
+      </c>
+      <c r="U14" t="s">
+        <v>82</v>
+      </c>
+      <c r="V14" t="s">
+        <v>83</v>
+      </c>
+      <c r="W14" t="s">
+        <v>84</v>
+      </c>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG14"/>
+      <c r="AH14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14"/>
+      <c r="AY14"/>
+      <c r="AZ14"/>
+      <c r="BA14"/>
+      <c r="BB14"/>
+      <c r="BC14"/>
+      <c r="BD14"/>
+      <c r="BE14" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG14"/>
+      <c r="BH14"/>
+      <c r="BI14"/>
+      <c r="BJ14"/>
+      <c r="BK14"/>
+      <c r="BL14"/>
+      <c r="BM14" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN14"/>
+      <c r="BO14"/>
+      <c r="BP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>55</v>
+      </c>
+      <c r="BR14"/>
+      <c r="BS14" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
